--- a/Doo-Doc/Seccion # 7/ConjuntosResidenciales - Event Storming.xlsx
+++ b/Doo-Doc/Seccion # 7/ConjuntosResidenciales - Event Storming.xlsx
@@ -5,20 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Seccion # 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Seccion # 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111BE7F5-F28D-42C9-8636-926AAAE16280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{111BE7F5-F28D-42C9-8636-926AAAE16280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F31AD88F-9C86-4508-B3A9-FFB53CF3CE52}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
     <sheet name="Listado Objetos de Dominio" sheetId="67" r:id="rId2"/>
     <sheet name="ConjuntoResidencial" sheetId="66" r:id="rId3"/>
     <sheet name="ZonaComun" sheetId="24" r:id="rId4"/>
-    <sheet name="TipoZonaComun" sheetId="68" r:id="rId5"/>
+    <sheet name="Administrador" sheetId="68" r:id="rId5"/>
+    <sheet name="Agenda" sheetId="69" r:id="rId6"/>
+    <sheet name="Publicacion" sheetId="70" r:id="rId7"/>
+    <sheet name="Turno" sheetId="71" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listado Objetos de Dominio'!$A$3:$B$6</definedName>
   </definedNames>
@@ -42,43 +48,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>WIDER FARID SANCHEZ GARZON</author>
-  </authors>
-  <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{3EAB824B-761A-446E-8B9A-62511A69DCED}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>WIDER FARID SANCHEZ GARZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Propio: Es parte del contexto actual.
-Referenciado: No es parte del contexto actual y represente a una vista materializada, vista parcializada o enlace de interacción con otro contexto.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="83">
   <si>
     <t>Descripción</t>
   </si>
@@ -167,43 +138,166 @@
     <t>Descripción contexto</t>
   </si>
   <si>
-    <t>Países buscados</t>
-  </si>
-  <si>
-    <t>País registrado</t>
-  </si>
-  <si>
-    <t>País dado de baja</t>
-  </si>
-  <si>
-    <t>Estado país modificado</t>
-  </si>
-  <si>
     <t>ConjuntoResidencial</t>
   </si>
   <si>
     <t>ZonaComun</t>
   </si>
   <si>
-    <t>TipoZonaComun</t>
-  </si>
-  <si>
     <t>Conjuntos Residenciales</t>
   </si>
   <si>
-    <t>Contexto cuya motivación es Gestionar la estructura física y los recursos disponibles en cada conjunto residencial. Aquí se manejan los datos sobre qué conjuntos existen, dónde están ubicados, y qué recursos ofrecen.</t>
-  </si>
-  <si>
-    <t>Objeto de dominio que representa el conjunto residencial.</t>
-  </si>
-  <si>
-    <t>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</t>
-  </si>
-  <si>
-    <t>Objeto de dominio que representa las categorías o tipos de zonas comunes disponibles en un conjunto residencial.</t>
-  </si>
-  <si>
     <t>Conjuntos residenciales</t>
+  </si>
+  <si>
+    <t>Contexto cuya motivación es ofrecer las ubicaciones geogràficas de Pais, Departamento, Ciudad y Corregimiento.</t>
+  </si>
+  <si>
+    <t>Descripción en términos del negocio del objeto de dominio 1</t>
+  </si>
+  <si>
+    <t>Descripción en términos del negocio del objeto de dominio 2</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que representa a cada uno de los departamentos asociados a los países donde pueden estar ubicadas las sedes de las Universidad Católica de Oriente y en las cuales se pueden realizar apuestas.</t>
+  </si>
+  <si>
+    <t>Agenda</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que representa a cada uno de los países donde pueden estar ubicadas las sedes de las Universidad Católica de Oriente y en las cuales se pueden realizar apuestas.</t>
+  </si>
+  <si>
+    <t>Publicacion</t>
+  </si>
+  <si>
+    <t>Turno</t>
+  </si>
+  <si>
+    <t>Conjunto residencial creado</t>
+  </si>
+  <si>
+    <t>Conjunto residencial buscado</t>
+  </si>
+  <si>
+    <t>Residente asociado</t>
+  </si>
+  <si>
+    <t>Administrador asociado</t>
+  </si>
+  <si>
+    <t>Residente eliminado</t>
+  </si>
+  <si>
+    <t>Conjunto residencial eliminado</t>
+  </si>
+  <si>
+    <t>Zona común creada</t>
+  </si>
+  <si>
+    <t>nombre zona común modificado</t>
+  </si>
+  <si>
+    <t>Imagen zona común modificado</t>
+  </si>
+  <si>
+    <t>Descripción zona común modificado</t>
+  </si>
+  <si>
+    <t>Capacidad zona común modificado</t>
+  </si>
+  <si>
+    <t>hora de apertura zona común modificado</t>
+  </si>
+  <si>
+    <t>Hora de cierre zona común modificado</t>
+  </si>
+  <si>
+    <t>ID conjunto residencial asociado</t>
+  </si>
+  <si>
+    <t>Zona común deshabilitada</t>
+  </si>
+  <si>
+    <t>Zona común eliminada</t>
+  </si>
+  <si>
+    <t>Administrador registrado</t>
+  </si>
+  <si>
+    <t>Administrador buscado</t>
+  </si>
+  <si>
+    <t>Nombre y apellido administrador modificado</t>
+  </si>
+  <si>
+    <t>Email administrador modificado</t>
+  </si>
+  <si>
+    <t>Número de contacto administrador modificado</t>
+  </si>
+  <si>
+    <t>ID conjunto residencial asignado</t>
+  </si>
+  <si>
+    <t>Administrador eliminado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agenda buscada </t>
+  </si>
+  <si>
+    <t>nombre agenda modificado</t>
+  </si>
+  <si>
+    <t>Día agenda modificado</t>
+  </si>
+  <si>
+    <t>ID zona común asignado</t>
+  </si>
+  <si>
+    <t>Agenda registrada</t>
+  </si>
+  <si>
+    <t>Turnos Agenda modificados</t>
+  </si>
+  <si>
+    <t>Agenda eliminada</t>
+  </si>
+  <si>
+    <t>Publicación creada</t>
+  </si>
+  <si>
+    <t>Publicación buscada</t>
+  </si>
+  <si>
+    <t>Publicación modificada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publicación eliminada </t>
+  </si>
+  <si>
+    <t>Publicación fijada</t>
+  </si>
+  <si>
+    <t>Turno creado</t>
+  </si>
+  <si>
+    <t>Turno buscado</t>
+  </si>
+  <si>
+    <t>número de turno turno modificado</t>
+  </si>
+  <si>
+    <t>Hora de inicio turno modificada</t>
+  </si>
+  <si>
+    <t>Hora de finalización turno modificada</t>
+  </si>
+  <si>
+    <t>Turno eliminado</t>
   </si>
 </sst>
 </file>
@@ -251,19 +345,19 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,12 +367,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,18 +444,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -499,21 +599,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -528,6 +613,180 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -542,179 +801,242 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -754,54 +1076,113 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>313764</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>466164</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>63965</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A2FBFB0-B67B-319E-BAB6-F57542C40783}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38EFE7DF-DD03-6779-A407-EF0F67259324}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="313764" y="302559"/>
-          <a:ext cx="7772400" cy="4714406"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9302675" cy="5611458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Flujo de eventos en el tiempo"/>
+      <sheetName val="Listado Objetos de Dominio"/>
+      <sheetName val="ConjuntoResidencial"/>
+      <sheetName val="ZonaComun"/>
+      <sheetName val="Administrador"/>
+      <sheetName val="Agenda"/>
+      <sheetName val="Publicación"/>
+      <sheetName val="Turno"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>ConjuntoResidencial</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>ZonaComun</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Administrador</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Agenda</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1103,19 +1484,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFF4C49-240B-4036-BD62-669D42F23E67}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18"/>
     </row>
   </sheetData>
@@ -1126,97 +1505,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+    </row>
+    <row r="2" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-    </row>
-    <row r="2" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="33" t="s">
+      <c r="B6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="54" t="s">
+      <c r="C6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="B7" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D7" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="54" t="s">
+      <c r="B9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>41</v>
+      <c r="D9" s="24" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1225,269 +1645,307 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A4" location="Ciudad!A1" display="Ciudad" xr:uid="{78FD4B04-C4A6-4442-9F4A-8F86F773C6D4}"/>
-    <hyperlink ref="A5" location="Corregimiento!A1" display="Corregimiento" xr:uid="{02C9F19B-EE12-42DD-8827-5C5B317B717F}"/>
-    <hyperlink ref="A6" location="Departamento!A1" display="Departamento" xr:uid="{7E61E3F0-0C27-49BA-8A71-784A949CFF1B}"/>
+    <hyperlink ref="A4" location="ConjuntoResidencial!B2" display="ConjuntoResidencial" xr:uid="{4B4AA14C-BF5A-4034-AC55-2282E6892914}"/>
+    <hyperlink ref="A5" location="ZonaComun!B2" display="ZonaComun" xr:uid="{6EC0DB57-546A-42CD-80E0-AF439E9C904D}"/>
+    <hyperlink ref="A6" location="Administrador!B2" display="Administrador" xr:uid="{274AD3E7-CFC0-479F-AED2-34C550792366}"/>
+    <hyperlink ref="A7" location="Agenda!B2" display="Agenda" xr:uid="{431459EF-6DEB-4768-B48C-5CF70406F8D5}"/>
+    <hyperlink ref="A8" location="Publicacion!B2" display="Publicacion" xr:uid="{DAA76E2F-B28A-4801-8A85-EE7F0E277CFC}"/>
+    <hyperlink ref="A9" location="Turno!B2" display="Turno" xr:uid="{DB33DD43-9370-4981-9F3A-627871EA5704}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48" t="str">
-        <f>'Listado Objetos de Dominio'!$A$4</f>
+      <c r="B2" s="46" t="str">
+        <f>'[1]Listado Objetos de Dominio'!A4</f>
         <v>ConjuntoResidencial</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="50" t="str">
-        <f>'Listado Objetos de Dominio'!$B$4</f>
-        <v>Objeto de dominio que representa el conjunto residencial.</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B3" s="48" t="str">
+        <f>'Listado Objetos de Dominio'!$B$5</f>
+        <v>Descripción en términos del negocio del objeto de dominio 2</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="43" t="s">
+      <c r="F4" s="34"/>
+      <c r="G4" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="11" t="s">
+      <c r="H4" s="41"/>
+      <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="41" t="s">
+      <c r="F5" s="34"/>
+      <c r="G5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="44" t="s">
+      <c r="H5" s="39"/>
+      <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="46"/>
-      <c r="M5" s="47"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="19" t="s">
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="38"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="17"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="18"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="D5:D6"/>
@@ -1503,12 +1961,11 @@
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
-    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BAD90D86-7311-49B0-A802-02D69BE204D5}"/>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{55E21CA2-8FF8-4D5B-80A8-5761C952FB5A}"/>
+    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{EE6F24EF-4ABE-4EFC-84DC-C9FDF3C4EA23}"/>
+    <hyperlink ref="D1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{288C86AC-31CB-4B56-9972-87C69960C47E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1517,258 +1974,362 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48" t="str">
-        <f>'Listado Objetos de Dominio'!$A$5</f>
+      <c r="B2" s="52" t="str">
+        <f>'[1]Listado Objetos de Dominio'!A5</f>
         <v>ZonaComun</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="50" t="str">
+      <c r="B3" s="55" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
-        <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+        <v>Descripción en términos del negocio del objeto de dominio 2</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="43" t="s">
+      <c r="F4" s="61"/>
+      <c r="G4" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="11" t="s">
+      <c r="H4" s="63"/>
+      <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="41" t="s">
+      <c r="F5" s="61"/>
+      <c r="G5" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="44" t="s">
+      <c r="H5" s="71"/>
+      <c r="I5" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="46"/>
-      <c r="M5" s="47"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="19" t="s">
+      <c r="L5" s="65"/>
+      <c r="M5" s="68"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="79"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="17"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="18"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="69"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -1784,13 +2345,11 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{79C12EC1-52AC-413E-AC64-706EBBEE7DDD}"/>
-    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{CEFBA896-B5C8-4F54-8445-F270CCC4F878}"/>
-    <hyperlink ref="D1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{F84D1E52-B8E1-4C63-BC9C-5D02F82CEE8F}"/>
+    <hyperlink ref="D1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{08B9185A-577F-48B9-9ED8-67B0BBF2A510}"/>
+    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{607A7919-29D4-4751-8490-C72BCB3B0AA7}"/>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{078F8CE3-595B-4553-B626-A15EF6954278}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1798,249 +2357,310 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48" t="str">
-        <f>'Listado Objetos de Dominio'!$A$6</f>
-        <v>TipoZonaComun</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="46" t="str">
+        <f>'[1]Listado Objetos de Dominio'!A6</f>
+        <v>Administrador</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="50" t="str">
-        <f>'Listado Objetos de Dominio'!$B$6</f>
-        <v>Objeto de dominio que representa las categorías o tipos de zonas comunes disponibles en un conjunto residencial.</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B3" s="48" t="str">
+        <f>'Listado Objetos de Dominio'!$B$5</f>
+        <v>Descripción en términos del negocio del objeto de dominio 2</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="43" t="s">
+      <c r="F4" s="34"/>
+      <c r="G4" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="11" t="s">
+      <c r="H4" s="41"/>
+      <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="53" t="s">
+      <c r="M4" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="41" t="s">
+      <c r="F5" s="34"/>
+      <c r="G5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="44" t="s">
+      <c r="H5" s="39"/>
+      <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="52"/>
-      <c r="M5" s="53"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="19" t="s">
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="38"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="17"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="18"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="D5:D6"/>
@@ -2056,35 +2676,960 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{D411DE6F-B6AA-4877-8454-AEC23893A3C7}"/>
-    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{53B8BD25-0D2C-4313-BB8B-9056FACF80A3}"/>
-    <hyperlink ref="D1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{6EF63257-035A-4505-A6A1-EA8BF4D2182C}"/>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{6A881977-C9D3-4BAB-A0CB-AD08821793D2}"/>
+    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{965D680D-AC4E-4F53-A034-1C2B02BCC038}"/>
+    <hyperlink ref="D1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{41EAE440-A139-403F-8AB5-3EE02D0A825E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135EFB96-F09D-4669-AFCD-45B4BA78057C}">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38" style="1" customWidth="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="46" t="str">
+        <f>'[1]Listado Objetos de Dominio'!A7</f>
+        <v>Agenda</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="48" t="str">
+        <f>'Listado Objetos de Dominio'!$B$5</f>
+        <v>Descripción en términos del negocio del objeto de dominio 2</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="41"/>
+      <c r="I4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="39"/>
+      <c r="I5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="38"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="42"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{175DFE60-DD9E-49DC-B6DD-E705858EF325}"/>
+    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{365FA825-4328-4975-B833-692C5CB46C96}"/>
+    <hyperlink ref="D1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{7EA7B2CD-C4A8-4B25-8CE9-45D7A18EE9D5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BE5EAF-3DFC-48B5-92F6-DF96C5003B3E}">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38" style="1" customWidth="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="46" t="str">
+        <f>'[1]Listado Objetos de Dominio'!A7</f>
+        <v>Agenda</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="48" t="str">
+        <f>'Listado Objetos de Dominio'!$B$5</f>
+        <v>Descripción en términos del negocio del objeto de dominio 2</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="41"/>
+      <c r="I4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="39"/>
+      <c r="I5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="38"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="42"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{755244C2-D34A-4436-ABEF-3130787CFBF9}"/>
+    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{F5A9893C-CE5B-47AC-8BA0-456E89214E9A}"/>
+    <hyperlink ref="D1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{238F79C9-7DA8-4F58-84A3-6CBEF6586270}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC47FB83-9179-46D6-840D-CDDDAC34ECFB}">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38" style="1" customWidth="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="46" t="str">
+        <f>'[1]Listado Objetos de Dominio'!A7</f>
+        <v>Agenda</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="48" t="str">
+        <f>'Listado Objetos de Dominio'!$B$5</f>
+        <v>Descripción en términos del negocio del objeto de dominio 2</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="41"/>
+      <c r="I4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="39"/>
+      <c r="I5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="38"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="42"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{72BB53BB-A255-4E65-8E13-6A32013B466E}"/>
+    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{5752D617-2034-4519-8D2B-2BE0D8F7B87D}"/>
+    <hyperlink ref="D1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{AA374180-A4FA-4438-9201-0CC68809C62C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C279D002CEC08F42B7087C30E58D0266" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5713f579c7011938dc4987ae8981b8f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3219184d-29ab-4105-b29c-8e343e335d59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae0a0ff84a3c6712467f60982d6e378d" ns2:_="">
     <xsd:import namespace="3219184d-29ab-4105-b29c-8e343e335d59"/>
@@ -2228,32 +3773,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AEECCE0-61F9-4782-94C5-382F8EFF459D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2271,6 +3806,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6ebbfa72-b3b6-4c1f-8b23-058d4f67f013}" enabled="1" method="Privileged" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="0" removed="0"/>

--- a/Doo-Doc/Seccion # 7/ConjuntosResidenciales - Event Storming.xlsx
+++ b/Doo-Doc/Seccion # 7/ConjuntosResidenciales - Event Storming.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Seccion # 7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Seccion # 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{111BE7F5-F28D-42C9-8636-926AAAE16280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F31AD88F-9C86-4508-B3A9-FFB53CF3CE52}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1F0B49-DD34-4DE4-8D57-041CC992534B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="7" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -24,6 +24,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listado Objetos de Dominio'!$A$3:$B$6</definedName>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="83">
   <si>
     <t>Descripción</t>
   </si>
@@ -144,36 +145,12 @@
     <t>ZonaComun</t>
   </si>
   <si>
-    <t>Conjuntos Residenciales</t>
-  </si>
-  <si>
-    <t>Conjuntos residenciales</t>
-  </si>
-  <si>
-    <t>Contexto cuya motivación es ofrecer las ubicaciones geogràficas de Pais, Departamento, Ciudad y Corregimiento.</t>
-  </si>
-  <si>
-    <t>Descripción en términos del negocio del objeto de dominio 1</t>
-  </si>
-  <si>
-    <t>Descripción en términos del negocio del objeto de dominio 2</t>
-  </si>
-  <si>
     <t>Administrador</t>
   </si>
   <si>
-    <t>Objeto de dominio que representa a cada uno de los departamentos asociados a los países donde pueden estar ubicadas las sedes de las Universidad Católica de Oriente y en las cuales se pueden realizar apuestas.</t>
-  </si>
-  <si>
     <t>Agenda</t>
   </si>
   <si>
-    <t>Objeto de dominio que representa a cada uno de los países donde pueden estar ubicadas las sedes de las Universidad Católica de Oriente y en las cuales se pueden realizar apuestas.</t>
-  </si>
-  <si>
-    <t>Publicacion</t>
-  </si>
-  <si>
     <t>Turno</t>
   </si>
   <si>
@@ -298,6 +275,30 @@
   </si>
   <si>
     <t>Turno eliminado</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que representa a cada uno de los conjuntos residenciales existentes.</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Objeto de dominio que representa el Administrador encarcador de hacer CRUD a sonas comunes y Usuarios(residentes) , tambien encargado de cancelar reservas.</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que representa la Agenda programada de manera especifica para cada zona comun.</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que representa a cada Turno que esta programado con respecto al tiempo de uso según la zona comun y con respecto a la agenda disponible.</t>
+  </si>
+  <si>
+    <t>Publicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Objeto de dominio que representa el medio de comunicación que hay frente de publicar alguna eventualidad.</t>
+  </si>
+  <si>
+    <t>Gestión de conjuntos residenciales</t>
   </si>
 </sst>
 </file>
@@ -462,12 +463,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -566,36 +567,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -637,19 +608,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -864,37 +822,19 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -903,10 +843,10 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -942,101 +882,119 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1180,6 +1138,46 @@
       <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Valores"/>
+      <sheetName val="ContextMapping"/>
+      <sheetName val="Contextos"/>
+      <sheetName val=" Gestión de Conjuntos residenci"/>
+      <sheetName val="Gestión de Residentes"/>
+      <sheetName val="Reservas"/>
+      <sheetName val="Reserva-0001"/>
+      <sheetName val="Reserva-0002"/>
+      <sheetName val="Reserva-0003"/>
+      <sheetName val="CaracterizaciónContexto1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="5">
+          <cell r="D5" t="str">
+            <v>Contexto cuya motivación es Gestionar la estructura física y los recursos disponibles en cada conjunto residencial. Aquí se manejan los datos sobre qué conjuntos existen, dónde están ubicados, qué recursos ofrecen según una Agenda con respectivos turnos para cada zona.</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1486,15 +1484,15 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18"/>
     </row>
   </sheetData>
@@ -1510,38 +1508,39 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
-    </row>
-    <row r="2" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+    </row>
+    <row r="2" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="str">
+        <f>[2]Contextos!$D$5</f>
+        <v>Contexto cuya motivación es Gestionar la estructura física y los recursos disponibles en cada conjunto residencial. Aquí se manejan los datos sobre qué conjuntos existen, dónde están ubicados, qué recursos ofrecen según una Agenda con respectivos turnos para cada zona.</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
@@ -1555,102 +1554,94 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="75" t="str">
+        <f>$B$1</f>
+        <v>Gestión de conjuntos residenciales</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="76"/>
+    </row>
+    <row r="6" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="72" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="23" t="s">
+      <c r="B6" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="D6" s="76"/>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="23" t="s">
+      <c r="D7" s="76"/>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="23" t="s">
+      <c r="D8" s="76"/>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>31</v>
-      </c>
+      <c r="D9" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="D4:D9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A4" location="ConjuntoResidencial!B2" display="ConjuntoResidencial" xr:uid="{4B4AA14C-BF5A-4034-AC55-2282E6892914}"/>
-    <hyperlink ref="A5" location="ZonaComun!B2" display="ZonaComun" xr:uid="{6EC0DB57-546A-42CD-80E0-AF439E9C904D}"/>
-    <hyperlink ref="A6" location="Administrador!B2" display="Administrador" xr:uid="{274AD3E7-CFC0-479F-AED2-34C550792366}"/>
-    <hyperlink ref="A7" location="Agenda!B2" display="Agenda" xr:uid="{431459EF-6DEB-4768-B48C-5CF70406F8D5}"/>
-    <hyperlink ref="A8" location="Publicacion!B2" display="Publicacion" xr:uid="{DAA76E2F-B28A-4801-8A85-EE7F0E277CFC}"/>
-    <hyperlink ref="A9" location="Turno!B2" display="Turno" xr:uid="{DB33DD43-9370-4981-9F3A-627871EA5704}"/>
+    <hyperlink ref="A5" location="ZonaComun!A1" display="ZonaComun" xr:uid="{659FF4C4-4E63-4E65-8F2F-0B1F9B560FF0}"/>
+    <hyperlink ref="A6" location="Administrador!A1" display="Administrador" xr:uid="{53777C6A-9F57-4297-A51E-D6F9710DD3E7}"/>
+    <hyperlink ref="A8" location="Turno!A1" display="Turno" xr:uid="{002FCD0F-C014-431C-817B-BD5A428252D4}"/>
+    <hyperlink ref="A9" location="Publicación!A1" display="Publicación" xr:uid="{009F13C8-1783-4CA2-A247-9F3369BC269F}"/>
+    <hyperlink ref="A4" location="ConjuntoResidencial!A1" display="ConjuntoResidencial" xr:uid="{5CE59C8C-1F49-44C1-B8F4-A07C71623DBF}"/>
+    <hyperlink ref="A7" location="Agenda!A1" display="Agenda" xr:uid="{4DA690E0-D9C3-43CD-BD03-AE26FE9577A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1665,108 +1656,108 @@
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="40" t="str">
         <f>'[1]Listado Objetos de Dominio'!A4</f>
         <v>ConjuntoResidencial</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="48" t="str">
+      <c r="B3" s="25" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
-        <v>Descripción en términos del negocio del objeto de dominio 2</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+        <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="41" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="41"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1776,52 +1767,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="39" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="39" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="42" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="36"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -1834,13 +1825,13 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1851,13 +1842,13 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1868,13 +1859,13 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1885,13 +1876,13 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1902,13 +1893,13 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1919,13 +1910,13 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1936,7 +1927,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
@@ -1944,11 +1935,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D5:D6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -1961,6 +1947,11 @@
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{55E21CA2-8FF8-4D5B-80A8-5761C952FB5A}"/>
@@ -1976,113 +1967,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:M2"/>
+      <selection pane="bottomLeft" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="52" t="str">
+      <c r="B2" s="44" t="str">
         <f>'[1]Listado Objetos de Dominio'!A5</f>
         <v>ZonaComun</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="55" t="str">
+      <c r="B3" s="47" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
-        <v>Descripción en términos del negocio del objeto de dominio 2</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="57"/>
+        <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="59"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62" t="s">
+      <c r="F4" s="53"/>
+      <c r="G4" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="63"/>
+      <c r="H4" s="55"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2092,52 +2083,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="64" t="s">
+      <c r="L4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="67" t="s">
+      <c r="M4" s="59" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="70" t="s">
+      <c r="F5" s="53"/>
+      <c r="G5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="74" t="s">
+      <c r="H5" s="63"/>
+      <c r="I5" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76" t="s">
+      <c r="J5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="72" t="s">
+      <c r="K5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="65"/>
-      <c r="M5" s="68"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="36"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="60"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="71"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -2150,13 +2141,13 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="69"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I6" s="67"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="61"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -2167,13 +2158,13 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -2184,13 +2175,13 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -2201,13 +2192,13 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -2218,13 +2209,13 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -2235,13 +2226,13 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -2252,13 +2243,13 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -2269,13 +2260,13 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -2286,13 +2277,13 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -2303,13 +2294,13 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -2320,7 +2311,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
@@ -2328,6 +2319,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="A1:N1"/>
@@ -2344,7 +2336,6 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{08B9185A-577F-48B9-9ED8-67B0BBF2A510}"/>
@@ -2359,112 +2350,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="43.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="40" t="str">
         <f>'[1]Listado Objetos de Dominio'!A6</f>
         <v>Administrador</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="48" t="str">
+      <c r="B3" s="25" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
-        <v>Descripción en términos del negocio del objeto de dominio 2</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+        <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="41" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="41"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2474,52 +2465,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="39" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="39" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="42" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="36"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -2532,13 +2523,13 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -2549,13 +2540,13 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -2566,13 +2557,13 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -2583,13 +2574,13 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -2600,13 +2591,13 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -2617,13 +2608,13 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -2634,13 +2625,13 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -2651,7 +2642,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
@@ -2659,11 +2650,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="D5:D6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -2676,6 +2662,11 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{6A881977-C9D3-4BAB-A0CB-AD08821793D2}"/>
@@ -2692,111 +2683,111 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="40" t="str">
         <f>'[1]Listado Objetos de Dominio'!A7</f>
         <v>Agenda</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="48" t="str">
+      <c r="B3" s="25" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
-        <v>Descripción en términos del negocio del objeto de dominio 2</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+        <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="41" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="41"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2806,52 +2797,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="39" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="39" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="42" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="36"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -2864,13 +2855,13 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -2881,13 +2872,13 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -2898,13 +2889,13 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -2915,13 +2906,13 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -2932,13 +2923,13 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -2949,13 +2940,13 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -2966,13 +2957,13 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -2983,7 +2974,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
@@ -2991,6 +2982,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -3007,7 +2999,6 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{175DFE60-DD9E-49DC-B6DD-E705858EF325}"/>
@@ -3026,108 +3017,108 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="40" t="str">
         <f>'[1]Listado Objetos de Dominio'!A7</f>
         <v>Agenda</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="48" t="str">
+      <c r="B3" s="25" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
-        <v>Descripción en términos del negocio del objeto de dominio 2</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+        <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="41" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="41"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -3137,52 +3128,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="39" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="39" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="42" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="36"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -3195,13 +3186,13 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -3212,13 +3203,13 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -3229,13 +3220,13 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -3246,13 +3237,13 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -3263,13 +3254,13 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -3280,7 +3271,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
@@ -3288,6 +3279,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -3304,7 +3296,6 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{755244C2-D34A-4436-ABEF-3130787CFBF9}"/>
@@ -3319,112 +3310,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC47FB83-9179-46D6-840D-CDDDAC34ECFB}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="40" t="str">
         <f>'[1]Listado Objetos de Dominio'!A7</f>
         <v>Agenda</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="48" t="str">
+      <c r="B3" s="25" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
-        <v>Descripción en términos del negocio del objeto de dominio 2</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+        <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="41" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="41"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -3434,52 +3425,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="39" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="39" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="42" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="36"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -3492,13 +3483,13 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -3509,13 +3500,13 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -3526,13 +3517,13 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -3543,13 +3534,13 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -3560,13 +3551,13 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -3577,13 +3568,13 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -3594,7 +3585,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
@@ -3602,6 +3593,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -3618,7 +3610,6 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{72BB53BB-A255-4E65-8E13-6A32013B466E}"/>
@@ -3630,6 +3621,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C279D002CEC08F42B7087C30E58D0266" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5713f579c7011938dc4987ae8981b8f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3219184d-29ab-4105-b29c-8e343e335d59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae0a0ff84a3c6712467f60982d6e378d" ns2:_="">
     <xsd:import namespace="3219184d-29ab-4105-b29c-8e343e335d59"/>
@@ -3773,12 +3770,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3789,6 +3780,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AEECCE0-61F9-4782-94C5-382F8EFF459D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3806,23 +3814,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>

--- a/Doo-Doc/Seccion # 7/ConjuntosResidenciales - Event Storming.xlsx
+++ b/Doo-Doc/Seccion # 7/ConjuntosResidenciales - Event Storming.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Seccion # 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Seccion # 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1F0B49-DD34-4DE4-8D57-041CC992534B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:1_{6A1F0B49-DD34-4DE4-8D57-041CC992534B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7914160D-F503-420A-8B7C-6C1ECD514C3B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="7" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="96">
   <si>
     <t>Descripción</t>
   </si>
@@ -175,27 +175,6 @@
     <t>Zona común creada</t>
   </si>
   <si>
-    <t>nombre zona común modificado</t>
-  </si>
-  <si>
-    <t>Imagen zona común modificado</t>
-  </si>
-  <si>
-    <t>Descripción zona común modificado</t>
-  </si>
-  <si>
-    <t>Capacidad zona común modificado</t>
-  </si>
-  <si>
-    <t>hora de apertura zona común modificado</t>
-  </si>
-  <si>
-    <t>Hora de cierre zona común modificado</t>
-  </si>
-  <si>
-    <t>ID conjunto residencial asociado</t>
-  </si>
-  <si>
     <t>Zona común deshabilitada</t>
   </si>
   <si>
@@ -226,21 +205,6 @@
     <t xml:space="preserve">Agenda buscada </t>
   </si>
   <si>
-    <t>nombre agenda modificado</t>
-  </si>
-  <si>
-    <t>Día agenda modificado</t>
-  </si>
-  <si>
-    <t>ID zona común asignado</t>
-  </si>
-  <si>
-    <t>Agenda registrada</t>
-  </si>
-  <si>
-    <t>Turnos Agenda modificados</t>
-  </si>
-  <si>
     <t>Agenda eliminada</t>
   </si>
   <si>
@@ -262,18 +226,6 @@
     <t>Turno creado</t>
   </si>
   <si>
-    <t>Turno buscado</t>
-  </si>
-  <si>
-    <t>número de turno turno modificado</t>
-  </si>
-  <si>
-    <t>Hora de inicio turno modificada</t>
-  </si>
-  <si>
-    <t>Hora de finalización turno modificada</t>
-  </si>
-  <si>
     <t>Turno eliminado</t>
   </si>
   <si>
@@ -299,6 +251,93 @@
   </si>
   <si>
     <t>Gestión de conjuntos residenciales</t>
+  </si>
+  <si>
+    <t>Agenda modificada</t>
+  </si>
+  <si>
+    <t>Acción de buscar la agenda correspondiente a la zona común.</t>
+  </si>
+  <si>
+    <t>Modificar agenda</t>
+  </si>
+  <si>
+    <t>Agenda creada</t>
+  </si>
+  <si>
+    <t>Acción de modificar los datos que contiene la agenda</t>
+  </si>
+  <si>
+    <t>Crear agenda</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>Residente</t>
+  </si>
+  <si>
+    <t>Buscar agenda</t>
+  </si>
+  <si>
+    <t>Adminitrador</t>
+  </si>
+  <si>
+    <t>Acción de crear una agenda</t>
+  </si>
+  <si>
+    <t>Elilimar agenda</t>
+  </si>
+  <si>
+    <t>Acción que permite eliminar completamente una agenda</t>
+  </si>
+  <si>
+    <t>Agenda-Pol-0001</t>
+  </si>
+  <si>
+    <t>No pueden haber más de una agenda con la misma zona común</t>
+  </si>
+  <si>
+    <t>La agenda no puede contener turnos que no estén dentro de los horarios de la zona común.</t>
+  </si>
+  <si>
+    <t>Agenda-Pol-0002</t>
+  </si>
+  <si>
+    <t>Agenda-Pol-0003</t>
+  </si>
+  <si>
+    <t>La agenda no puede tener más de una zona común asociada.</t>
+  </si>
+  <si>
+    <t>Turno modificado</t>
+  </si>
+  <si>
+    <t>Turno-Pol-0001</t>
+  </si>
+  <si>
+    <t>No pueden haber más de un turno a la misma hora de inicio y finalización para la misma agenda.</t>
+  </si>
+  <si>
+    <t>Turno-Pol-0002</t>
+  </si>
+  <si>
+    <t>El</t>
+  </si>
+  <si>
+    <t>La agenda necesita de una zona común asociada</t>
+  </si>
+  <si>
+    <t>Conjunto residencial</t>
+  </si>
+  <si>
+    <t>Define a que conjunto residencial pertenece la zona común</t>
+  </si>
+  <si>
+    <t>Información de la zona común</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información de la zona común </t>
   </si>
 </sst>
 </file>
@@ -468,7 +507,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -753,13 +792,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -822,6 +872,21 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -831,15 +896,57 @@
     <xf numFmtId="0" fontId="6" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -849,38 +956,11 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -966,35 +1046,56 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1098,6 +1199,46 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Valores"/>
+      <sheetName val="ContextMapping"/>
+      <sheetName val="Contextos"/>
+      <sheetName val=" Gestión de Conjuntos residenci"/>
+      <sheetName val="Gestión de Residentes"/>
+      <sheetName val="Reservas"/>
+      <sheetName val="Reserva-0001"/>
+      <sheetName val="Reserva-0002"/>
+      <sheetName val="Reserva-0003"/>
+      <sheetName val="CaracterizaciónContexto1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="5">
+          <cell r="D5" t="str">
+            <v>Contexto cuya motivación es Gestionar la estructura física y los recursos disponibles en cada conjunto residencial. Aquí se manejan los datos sobre qué conjuntos existen, dónde están ubicados, qué recursos ofrecen según una Agenda con respectivos turnos para cada zona.</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Flujo de eventos en el tiempo"/>
       <sheetName val="Listado Objetos de Dominio"/>
@@ -1138,46 +1279,6 @@
       <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Valores"/>
-      <sheetName val="ContextMapping"/>
-      <sheetName val="Contextos"/>
-      <sheetName val=" Gestión de Conjuntos residenci"/>
-      <sheetName val="Gestión de Residentes"/>
-      <sheetName val="Reservas"/>
-      <sheetName val="Reserva-0001"/>
-      <sheetName val="Reserva-0002"/>
-      <sheetName val="Reserva-0003"/>
-      <sheetName val="CaracterizaciónContexto1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="5">
-          <cell r="D5" t="str">
-            <v>Contexto cuya motivación es Gestionar la estructura física y los recursos disponibles en cada conjunto residencial. Aquí se manejan los datos sobre qué conjuntos existen, dónde están ubicados, qué recursos ofrecen según una Agenda con respectivos turnos para cada zona.</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1484,15 +1585,15 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18"/>
     </row>
   </sheetData>
@@ -1508,39 +1609,39 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
-    </row>
-    <row r="2" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="22" t="str">
-        <f>[2]Contextos!$D$5</f>
+      <c r="B2" s="27" t="str">
+        <f>[1]Contextos!$D$5</f>
         <v>Contexto cuya motivación es Gestionar la estructura física y los recursos disponibles en cada conjunto residencial. Aquí se manejan los datos sobre qué conjuntos existen, dónde están ubicados, qué recursos ofrecen según una Agenda con respectivos turnos para cada zona.</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
@@ -1554,80 +1655,80 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="74" t="s">
+      <c r="B4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="75" t="str">
+      <c r="D4" s="30" t="str">
         <f>$B$1</f>
         <v>Gestión de conjuntos residenciales</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+    <row r="5" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="74" t="s">
+      <c r="B5" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="76"/>
-    </row>
-    <row r="6" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+      <c r="D5" s="31"/>
+    </row>
+    <row r="6" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="74" t="s">
+      <c r="B6" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="76"/>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="72" t="s">
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="74" t="s">
+      <c r="B7" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="76"/>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
+      <c r="D7" s="31"/>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="74" t="s">
+      <c r="B8" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="76"/>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="74" t="s">
+      <c r="D8" s="31"/>
+    </row>
+    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="77"/>
+      <c r="D9" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1656,108 +1757,108 @@
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40" t="str">
-        <f>'[1]Listado Objetos de Dominio'!A4</f>
+      <c r="B2" s="43" t="str">
+        <f>'[2]Listado Objetos de Dominio'!A4</f>
         <v>ConjuntoResidencial</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="47"/>
+      <c r="G4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="35"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1767,52 +1868,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="42" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="33" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="36"/>
+      <c r="I5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="30"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -1825,13 +1926,13 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="42"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1848,7 +1949,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1865,7 +1966,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1882,7 +1983,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1899,7 +2000,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1916,7 +2017,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1935,6 +2036,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -1951,7 +2053,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{55E21CA2-8FF8-4D5B-80A8-5761C952FB5A}"/>
@@ -1965,115 +2066,115 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:N1"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44" t="str">
-        <f>'[1]Listado Objetos de Dominio'!A5</f>
+      <c r="B2" s="54" t="str">
+        <f>'[2]Listado Objetos de Dominio'!A5</f>
         <v>ZonaComun</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="57" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="54" t="s">
+      <c r="F4" s="63"/>
+      <c r="G4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="55"/>
+      <c r="H4" s="65"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2083,52 +2184,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="M4" s="69" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="62" t="s">
+      <c r="F5" s="63"/>
+      <c r="G5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="66" t="s">
+      <c r="H5" s="73"/>
+      <c r="I5" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="64" t="s">
+      <c r="K5" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="57"/>
-      <c r="M5" s="60"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="30"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="70"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="51"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -2141,19 +2242,23 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="61"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I6" s="77"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="71"/>
+    </row>
+    <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="80" t="s">
+        <v>93</v>
+      </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -2164,7 +2269,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -2181,7 +2286,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -2198,127 +2303,9 @@
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="13"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="13"/>
-    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -2335,7 +2322,6 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{08B9185A-577F-48B9-9ED8-67B0BBF2A510}"/>
@@ -2351,111 +2337,111 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="43.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="43.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40" t="str">
-        <f>'[1]Listado Objetos de Dominio'!A6</f>
+      <c r="B2" s="43" t="str">
+        <f>'[2]Listado Objetos de Dominio'!A6</f>
         <v>Administrador</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="47"/>
+      <c r="G4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="35"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2465,52 +2451,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="42" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="33" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="36"/>
+      <c r="I5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="30"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -2523,13 +2509,13 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="42"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -2540,13 +2526,13 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -2557,13 +2543,13 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -2574,13 +2560,13 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -2591,13 +2577,13 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -2608,13 +2594,13 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -2625,13 +2611,13 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -2642,7 +2628,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
@@ -2650,6 +2636,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -2666,7 +2653,6 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{6A881977-C9D3-4BAB-A0CB-AD08821793D2}"/>
@@ -2682,112 +2668,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135EFB96-F09D-4669-AFCD-45B4BA78057C}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40" t="str">
-        <f>'[1]Listado Objetos de Dominio'!A7</f>
+      <c r="B2" s="43" t="str">
+        <f>'[2]Listado Objetos de Dominio'!A7</f>
         <v>Agenda</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="47"/>
+      <c r="G4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="35"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2797,52 +2783,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="42" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="27" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="33" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="36"/>
+      <c r="I5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="30"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -2855,133 +2841,217 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="42"/>
+    </row>
+    <row r="7" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="87"/>
+    </row>
+    <row r="8" spans="1:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="84"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="88"/>
+    </row>
+    <row r="9" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="80" t="s">
+        <v>82</v>
+      </c>
       <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="J9" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="87"/>
+    </row>
+    <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="95"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="80" t="s">
+        <v>85</v>
+      </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="96"/>
+    </row>
+    <row r="11" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="82"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="12" t="str">
+        <f>G9</f>
+        <v>Agenda-Pol-0002</v>
+      </c>
+      <c r="H11" s="80" t="s">
+        <v>82</v>
+      </c>
       <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="88"/>
+    </row>
+    <row r="12" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="93" t="s">
+        <v>91</v>
+      </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+    <row r="13" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="80" t="s">
+        <v>91</v>
+      </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="39">
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
@@ -2998,7 +3068,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{175DFE60-DD9E-49DC-B6DD-E705858EF325}"/>
@@ -3017,108 +3086,108 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40" t="str">
-        <f>'[1]Listado Objetos de Dominio'!A7</f>
+      <c r="B2" s="43" t="str">
+        <f>'[2]Listado Objetos de Dominio'!A7</f>
         <v>Agenda</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="47"/>
+      <c r="G4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="35"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -3128,52 +3197,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="42" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="33" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="36"/>
+      <c r="I5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="30"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -3186,13 +3255,13 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="42"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -3203,13 +3272,13 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -3220,13 +3289,13 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -3237,13 +3306,13 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -3254,13 +3323,13 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -3271,7 +3340,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
@@ -3279,6 +3348,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
@@ -3295,7 +3365,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{755244C2-D34A-4436-ABEF-3130787CFBF9}"/>
@@ -3308,114 +3377,114 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC47FB83-9179-46D6-840D-CDDDAC34ECFB}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40" t="str">
-        <f>'[1]Listado Objetos de Dominio'!A7</f>
+      <c r="B2" s="43" t="str">
+        <f>'[2]Listado Objetos de Dominio'!A7</f>
         <v>Agenda</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="47"/>
+      <c r="G4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="35"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -3425,52 +3494,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="42" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="33" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="36"/>
+      <c r="I5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="30"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -3483,47 +3552,53 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="42"/>
+    </row>
+    <row r="7" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="80" t="s">
+        <v>88</v>
+      </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="80" t="s">
+        <v>90</v>
+      </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
-        <v>70</v>
-      </c>
+      <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -3534,13 +3609,13 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -3551,48 +3626,15 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
-    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
@@ -3609,7 +3651,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{72BB53BB-A255-4E65-8E13-6A32013B466E}"/>
@@ -3627,6 +3668,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C279D002CEC08F42B7087C30E58D0266" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5713f579c7011938dc4987ae8981b8f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3219184d-29ab-4105-b29c-8e343e335d59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae0a0ff84a3c6712467f60982d6e378d" ns2:_="">
     <xsd:import namespace="3219184d-29ab-4105-b29c-8e343e335d59"/>
@@ -3770,15 +3820,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
@@ -3797,6 +3838,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AEECCE0-61F9-4782-94C5-382F8EFF459D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3814,14 +3863,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6ebbfa72-b3b6-4c1f-8b23-058d4f67f013}" enabled="1" method="Privileged" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="0" removed="0"/>

--- a/Doo-Doc/Seccion # 7/ConjuntosResidenciales - Event Storming.xlsx
+++ b/Doo-Doc/Seccion # 7/ConjuntosResidenciales - Event Storming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Seccion # 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:1_{6A1F0B49-DD34-4DE4-8D57-041CC992534B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7914160D-F503-420A-8B7C-6C1ECD514C3B}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{6A1F0B49-DD34-4DE4-8D57-041CC992534B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B4140D6-528F-4CD1-92F8-BD77DAE08A9E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -809,7 +809,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -881,6 +881,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -905,6 +914,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -950,12 +965,6 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1046,56 +1055,56 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1282,6 +1291,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1607,9 +1620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1624,22 +1637,22 @@
       <c r="A1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="27" t="str">
+      <c r="B2" s="30" t="str">
         <f>[1]Contextos!$D$5</f>
         <v>Contexto cuya motivación es Gestionar la estructura física y los recursos disponibles en cada conjunto residencial. Aquí se manejan los datos sobre qué conjuntos existen, dónde están ubicados, qué recursos ofrecen según una Agenda con respectivos turnos para cada zona.</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
@@ -1655,7 +1668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>29</v>
       </c>
@@ -1665,12 +1678,12 @@
       <c r="C4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="30" t="str">
+      <c r="D4" s="33" t="str">
         <f>$B$1</f>
         <v>Gestión de conjuntos residenciales</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>30</v>
       </c>
@@ -1680,7 +1693,7 @@
       <c r="C5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
@@ -1692,7 +1705,7 @@
       <c r="C6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
@@ -1704,7 +1717,7 @@
       <c r="C7" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
@@ -1716,7 +1729,7 @@
       <c r="C8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
@@ -1728,7 +1741,7 @@
       <c r="C9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1781,84 +1794,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="43" t="str">
+      <c r="B2" s="48" t="str">
         <f>'[2]Listado Objetos de Dominio'!A4</f>
         <v>ConjuntoResidencial</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="45" t="str">
+      <c r="B3" s="50" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="38" t="s">
+      <c r="F4" s="52"/>
+      <c r="G4" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="38"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1868,52 +1881,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="47" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="36" t="s">
+      <c r="F5" s="52"/>
+      <c r="G5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="39" t="s">
+      <c r="H5" s="41"/>
+      <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="49"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -1926,11 +1939,11 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="42"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
@@ -2036,6 +2049,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A5:A6"/>
@@ -2052,7 +2066,6 @@
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{55E21CA2-8FF8-4D5B-80A8-5761C952FB5A}"/>
@@ -2097,84 +2110,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54" t="str">
+      <c r="B2" s="57" t="str">
         <f>'[2]Listado Objetos de Dominio'!A5</f>
         <v>ZonaComun</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="57" t="str">
+      <c r="B3" s="60" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="62"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64" t="s">
+      <c r="F4" s="66"/>
+      <c r="G4" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="65"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2184,52 +2197,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="66" t="s">
+      <c r="L4" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="69" t="s">
+      <c r="M4" s="72" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="72" t="s">
+      <c r="F5" s="66"/>
+      <c r="G5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="76" t="s">
+      <c r="H5" s="76"/>
+      <c r="I5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78" t="s">
+      <c r="J5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="74" t="s">
+      <c r="K5" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="67"/>
-      <c r="M5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="49"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -2242,11 +2255,11 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="71"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="74"/>
     </row>
     <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
@@ -2256,7 +2269,7 @@
       <c r="E7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="F7" s="25" t="s">
         <v>93</v>
       </c>
       <c r="G7" s="12"/>
@@ -2305,6 +2318,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -2321,7 +2335,6 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{08B9185A-577F-48B9-9ED8-67B0BBF2A510}"/>
@@ -2364,84 +2377,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="43" t="str">
+      <c r="B2" s="48" t="str">
         <f>'[2]Listado Objetos de Dominio'!A6</f>
         <v>Administrador</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="45" t="str">
+      <c r="B3" s="50" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="38" t="s">
+      <c r="F4" s="52"/>
+      <c r="G4" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="38"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2451,52 +2464,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="47" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="36" t="s">
+      <c r="F5" s="52"/>
+      <c r="G5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="39" t="s">
+      <c r="H5" s="41"/>
+      <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="49"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -2509,11 +2522,11 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="42"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
@@ -2636,6 +2649,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
@@ -2652,7 +2666,6 @@
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{6A881977-C9D3-4BAB-A0CB-AD08821793D2}"/>
@@ -2668,8 +2681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135EFB96-F09D-4669-AFCD-45B4BA78057C}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2696,84 +2709,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="43" t="str">
+      <c r="B2" s="48" t="str">
         <f>'[2]Listado Objetos de Dominio'!A7</f>
         <v>Agenda</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="45" t="str">
+      <c r="B3" s="50" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="38" t="s">
+      <c r="F4" s="52"/>
+      <c r="G4" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="38"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2783,52 +2796,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="47" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="36" t="s">
+      <c r="F5" s="52"/>
+      <c r="G5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="39" t="s">
+      <c r="H5" s="41"/>
+      <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="49"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -2841,11 +2854,11 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="42"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
     </row>
     <row r="7" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
@@ -2854,22 +2867,22 @@
       <c r="B7" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="91" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="89" t="s">
         <v>95</v>
       </c>
       <c r="G7" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="85" t="s">
+      <c r="H7" s="89" t="s">
         <v>81</v>
       </c>
       <c r="I7" s="83"/>
@@ -2878,48 +2891,48 @@
       </c>
       <c r="K7" s="83"/>
       <c r="L7" s="83"/>
-      <c r="M7" s="87"/>
+      <c r="M7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
       <c r="M8" s="88"/>
     </row>
     <row r="9" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="85" t="s">
+      <c r="F9" s="94" t="s">
         <v>91</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="80" t="s">
+      <c r="H9" s="25" t="s">
         <v>82</v>
       </c>
       <c r="I9" s="12"/>
@@ -2928,45 +2941,45 @@
       </c>
       <c r="K9" s="83"/>
       <c r="L9" s="83"/>
-      <c r="M9" s="87"/>
+      <c r="M9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="95"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="94"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="95"/>
       <c r="G10" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="80" t="s">
+      <c r="H10" s="25" t="s">
         <v>85</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="96"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="87"/>
     </row>
     <row r="11" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="86"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="96"/>
       <c r="G11" s="12" t="str">
         <f>G9</f>
         <v>Agenda-Pol-0002</v>
       </c>
-      <c r="H11" s="80" t="s">
+      <c r="H11" s="25" t="s">
         <v>82</v>
       </c>
       <c r="I11" s="12"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
       <c r="M11" s="88"/>
     </row>
     <row r="12" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -2976,16 +2989,16 @@
       <c r="B12" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="25" t="s">
         <v>77</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="91" t="s">
+      <c r="E12" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="93" t="s">
+      <c r="F12" s="27" t="s">
         <v>91</v>
       </c>
       <c r="G12" s="12"/>
@@ -3005,7 +3018,7 @@
       <c r="B13" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="25" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -3014,7 +3027,7 @@
       <c r="E13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="80" t="s">
+      <c r="F13" s="25" t="s">
         <v>91</v>
       </c>
       <c r="G13" s="12"/>
@@ -3029,26 +3042,9 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
@@ -3065,9 +3061,26 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{175DFE60-DD9E-49DC-B6DD-E705858EF325}"/>
@@ -3110,84 +3123,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="43" t="str">
+      <c r="B2" s="48" t="str">
         <f>'[2]Listado Objetos de Dominio'!A7</f>
         <v>Agenda</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="45" t="str">
+      <c r="B3" s="50" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="38" t="s">
+      <c r="F4" s="52"/>
+      <c r="G4" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="38"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -3197,52 +3210,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="47" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="36" t="s">
+      <c r="F5" s="52"/>
+      <c r="G5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="39" t="s">
+      <c r="H5" s="41"/>
+      <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="49"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -3255,11 +3268,11 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="42"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
@@ -3348,6 +3361,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A1:N1"/>
@@ -3364,7 +3378,6 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{755244C2-D34A-4436-ABEF-3130787CFBF9}"/>
@@ -3407,84 +3420,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="43" t="str">
+      <c r="B2" s="48" t="str">
         <f>'[2]Listado Objetos de Dominio'!A7</f>
         <v>Agenda</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="45" t="str">
+      <c r="B3" s="50" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="38" t="s">
+      <c r="F4" s="52"/>
+      <c r="G4" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="38"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -3494,52 +3507,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="47" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="36" t="s">
+      <c r="F5" s="52"/>
+      <c r="G5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="39" t="s">
+      <c r="H5" s="41"/>
+      <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="49"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -3552,11 +3565,11 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="42"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
     </row>
     <row r="7" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
@@ -3568,7 +3581,7 @@
       <c r="G7" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="80" t="s">
+      <c r="H7" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I7" s="12"/>
@@ -3589,7 +3602,7 @@
       <c r="G8" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="80" t="s">
+      <c r="H8" s="25" t="s">
         <v>90</v>
       </c>
       <c r="I8" s="12"/>
@@ -3634,6 +3647,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A1:N1"/>
@@ -3650,7 +3664,6 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{72BB53BB-A255-4E65-8E13-6A32013B466E}"/>
@@ -3668,15 +3681,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C279D002CEC08F42B7087C30E58D0266" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5713f579c7011938dc4987ae8981b8f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3219184d-29ab-4105-b29c-8e343e335d59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae0a0ff84a3c6712467f60982d6e378d" ns2:_="">
     <xsd:import namespace="3219184d-29ab-4105-b29c-8e343e335d59"/>
@@ -3820,6 +3824,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
@@ -3838,14 +3851,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AEECCE0-61F9-4782-94C5-382F8EFF459D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3863,6 +3868,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6ebbfa72-b3b6-4c1f-8b23-058d4f67f013}" enabled="1" method="Privileged" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="0" removed="0"/>

--- a/Doo-Doc/Seccion # 7/ConjuntosResidenciales - Event Storming.xlsx
+++ b/Doo-Doc/Seccion # 7/ConjuntosResidenciales - Event Storming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Seccion # 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{6A1F0B49-DD34-4DE4-8D57-041CC992534B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B4140D6-528F-4CD1-92F8-BD77DAE08A9E}"/>
+  <xr:revisionPtr revIDLastSave="723" documentId="13_ncr:1_{6A1F0B49-DD34-4DE4-8D57-041CC992534B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{551C5C8F-FE83-45E0-A63D-3A6AA7E3DC26}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -22,10 +22,6 @@
     <sheet name="Publicacion" sheetId="70" r:id="rId7"/>
     <sheet name="Turno" sheetId="71" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listado Objetos de Dominio'!$A$3:$B$6</definedName>
   </definedNames>
@@ -50,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="174">
   <si>
     <t>Descripción</t>
   </si>
@@ -154,9 +150,6 @@
     <t>Turno</t>
   </si>
   <si>
-    <t>Conjunto residencial creado</t>
-  </si>
-  <si>
     <t>Conjunto residencial buscado</t>
   </si>
   <si>
@@ -175,9 +168,6 @@
     <t>Zona común creada</t>
   </si>
   <si>
-    <t>Zona común deshabilitada</t>
-  </si>
-  <si>
     <t>Zona común eliminada</t>
   </si>
   <si>
@@ -187,18 +177,6 @@
     <t>Administrador buscado</t>
   </si>
   <si>
-    <t>Nombre y apellido administrador modificado</t>
-  </si>
-  <si>
-    <t>Email administrador modificado</t>
-  </si>
-  <si>
-    <t>Número de contacto administrador modificado</t>
-  </si>
-  <si>
-    <t>ID conjunto residencial asignado</t>
-  </si>
-  <si>
     <t>Administrador eliminado</t>
   </si>
   <si>
@@ -235,9 +213,6 @@
     <t>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Objeto de dominio que representa el Administrador encarcador de hacer CRUD a sonas comunes y Usuarios(residentes) , tambien encargado de cancelar reservas.</t>
-  </si>
-  <si>
     <t>Objeto de dominio que representa la Agenda programada de manera especifica para cada zona comun.</t>
   </si>
   <si>
@@ -304,12 +279,6 @@
     <t>Agenda-Pol-0002</t>
   </si>
   <si>
-    <t>Agenda-Pol-0003</t>
-  </si>
-  <si>
-    <t>La agenda no puede tener más de una zona común asociada.</t>
-  </si>
-  <si>
     <t>Turno modificado</t>
   </si>
   <si>
@@ -328,23 +297,284 @@
     <t>La agenda necesita de una zona común asociada</t>
   </si>
   <si>
-    <t>Conjunto residencial</t>
-  </si>
-  <si>
-    <t>Define a que conjunto residencial pertenece la zona común</t>
-  </si>
-  <si>
     <t>Información de la zona común</t>
   </si>
   <si>
-    <t xml:space="preserve">Información de la zona común </t>
+    <t>Conjunto residencial registrado</t>
+  </si>
+  <si>
+    <t>información de la ZonaComun</t>
+  </si>
+  <si>
+    <t>Administrador del sistema</t>
+  </si>
+  <si>
+    <t>Registrar conjunto residencial</t>
+  </si>
+  <si>
+    <t>Acción de registrar un conjunto residencial en el sistema</t>
+  </si>
+  <si>
+    <t>ConRes-Pol0001</t>
+  </si>
+  <si>
+    <t>Buscar conjunto residencial</t>
+  </si>
+  <si>
+    <t>Acción de buscar un conjunto residencial en el sistema</t>
+  </si>
+  <si>
+    <t>ConRes-Pol0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción de asociar un residente a un conjunto residencial. </t>
+  </si>
+  <si>
+    <t>No puede haber más de un conjunto residencial con el mismo nombre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción de asociar un administrador a un conjunto residencial. </t>
+  </si>
+  <si>
+    <t>ConRes-Pol0003</t>
+  </si>
+  <si>
+    <t>No puede haber un mismo residente asociado en más de un conjunto residencial.</t>
+  </si>
+  <si>
+    <t>No puede haber un mismo administrador asociado en más de un conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Acción de eliminar a un residente del conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Eliminar conjunto residencial</t>
+  </si>
+  <si>
+    <t>Eliminar residente</t>
+  </si>
+  <si>
+    <t>Asociar administrador</t>
+  </si>
+  <si>
+    <t>Asociar residente</t>
+  </si>
+  <si>
+    <t>Acción de eliminar un conjunto residencial del sistema</t>
+  </si>
+  <si>
+    <t>Información del conjunto residencial al que se encuentra asociada la zona común que se desea crear.</t>
+  </si>
+  <si>
+    <t>información Conjunto residencial</t>
+  </si>
+  <si>
+    <t>Crear zona común</t>
+  </si>
+  <si>
+    <t>Acción dónde un administrador podrá crear una zona común</t>
+  </si>
+  <si>
+    <t>ZonCom-Pol0001</t>
+  </si>
+  <si>
+    <t>Zona común buscada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscar zona común </t>
+  </si>
+  <si>
+    <t>Acción de buscar una zona común especifica</t>
+  </si>
+  <si>
+    <t>No puede existir más de una zona común con el mismo nombre para el mismo conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Información del conjunto residencial al que se encuentra asociada la zona común que se desea buscar.</t>
+  </si>
+  <si>
+    <t>ZonCom-Pol0002</t>
+  </si>
+  <si>
+    <t>Eliminar zona común</t>
+  </si>
+  <si>
+    <t>Acción de eliminar una zona común de un conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Información del conjunto residencial al que se encuentra asociada la zona común que se desea eliminar.</t>
+  </si>
+  <si>
+    <t>ZonCom-Pol0004</t>
+  </si>
+  <si>
+    <t>No puede eliminarse una zona común inexistente.</t>
+  </si>
+  <si>
+    <t>Registrar administrador</t>
+  </si>
+  <si>
+    <t>Acción de registrar un administrador para un conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Información conjunto residencial</t>
+  </si>
+  <si>
+    <t>Información del conjunto residencial al cual se va a registrar un administrador</t>
+  </si>
+  <si>
+    <t>Admin-Pol0001</t>
+  </si>
+  <si>
+    <t>Administrador modificado</t>
+  </si>
+  <si>
+    <t>Modificar administrador</t>
+  </si>
+  <si>
+    <t>Información del conjunto residencial al cual se va a modificar un administrador</t>
+  </si>
+  <si>
+    <t>No puede haber más de un administrador con el mismo nombre en el mismo conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Buscar administrador</t>
+  </si>
+  <si>
+    <t>Acción de buscar la información asociada a un administrador del conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Acción de modificar la información asociada a un administrador del conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Información del conjunto residencial al cual se va a buscar un administrador</t>
+  </si>
+  <si>
+    <t>Eliminar administrador</t>
+  </si>
+  <si>
+    <t>Acción de eliminar a un administrador de un conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Información de la zona común asociada a la agenda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Objeto de dominio que representa el Administrador encargado de hacer CRUD a zonas comunes y Usuarios(residentes), tambien encargado de cancelar reservas.</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear publicación </t>
+  </si>
+  <si>
+    <t>Acción de crear una nueva publicación para el conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Contexto cuya motivación es Gestionar la estructura física y los recursos disponibles en cada conjunto residencial. Aquí se manejan los datos sobre qué conjuntos existen, dónde están ubicados, qué recursos ofrecen según una Agenda con respectivos turnos para cada zona.</t>
+  </si>
+  <si>
+    <t>Publicacion</t>
+  </si>
+  <si>
+    <t>Información del conjunto residencial al cual va dirigida la publicación creada.</t>
+  </si>
+  <si>
+    <t>Publi-Pol0001</t>
+  </si>
+  <si>
+    <t>No puede haber más de una publicación con el mismo enunciado.</t>
+  </si>
+  <si>
+    <t>Publi-Pol0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No puede haber más de una publicación con el mismo contenido. </t>
+  </si>
+  <si>
+    <t>Buscar publicación</t>
+  </si>
+  <si>
+    <t>Acción de buscar una publicación especifica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificar publicación </t>
+  </si>
+  <si>
+    <t>Acción de modificar una publicación.</t>
+  </si>
+  <si>
+    <t>Información del conjunto residencial al cual va dirigida la publicación buscada.</t>
+  </si>
+  <si>
+    <t>Eliminar publicación</t>
+  </si>
+  <si>
+    <t>Acción de eliminar una publicación creada.</t>
+  </si>
+  <si>
+    <t>Información del conjunto residencial al cual va dirigida la publicación eliminada.</t>
+  </si>
+  <si>
+    <t>Información del conjunto residencial al cual va dirigida la publicación modificada.</t>
+  </si>
+  <si>
+    <t>Fijar publicación</t>
+  </si>
+  <si>
+    <t>Acción de fijar o resaltar una publicación</t>
+  </si>
+  <si>
+    <t>Zona común modificada.</t>
+  </si>
+  <si>
+    <t>Modificar zona común</t>
+  </si>
+  <si>
+    <t>Acción de modificar los atributos de una zona común</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZonaComun </t>
+  </si>
+  <si>
+    <t>Información del conjunto residencial al que se encuentra asociada la zona común que se desea modificar</t>
+  </si>
+  <si>
+    <t>No puede tener un tiempo de uso mayor a la diferencia de hora de cierre y hora de inicio</t>
+  </si>
+  <si>
+    <t>Agenda-Pol0004</t>
+  </si>
+  <si>
+    <t>No puede haber más de una fecha con la misma agenda y zona común.</t>
+  </si>
+  <si>
+    <t>Turnos agenda repartidos</t>
+  </si>
+  <si>
+    <t>Turno-Pol0002</t>
+  </si>
+  <si>
+    <t>No puede haber un turno cón horas decimales cuando se haga repartición, se redondeará el turno en este caso.</t>
+  </si>
+  <si>
+    <t>No pueden haber más de un turno con el mismo nombre asociado a la misma agenda</t>
+  </si>
+  <si>
+    <t>Turno-Pol0003</t>
+  </si>
+  <si>
+    <t>No puede haber un turno disponible en una agenda que no está disponible.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +625,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="19">
@@ -507,7 +743,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -803,13 +1039,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -872,9 +1139,6 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -885,226 +1149,325 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1203,98 +1566,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Valores"/>
-      <sheetName val="ContextMapping"/>
-      <sheetName val="Contextos"/>
-      <sheetName val=" Gestión de Conjuntos residenci"/>
-      <sheetName val="Gestión de Residentes"/>
-      <sheetName val="Reservas"/>
-      <sheetName val="Reserva-0001"/>
-      <sheetName val="Reserva-0002"/>
-      <sheetName val="Reserva-0003"/>
-      <sheetName val="CaracterizaciónContexto1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="5">
-          <cell r="D5" t="str">
-            <v>Contexto cuya motivación es Gestionar la estructura física y los recursos disponibles en cada conjunto residencial. Aquí se manejan los datos sobre qué conjuntos existen, dónde están ubicados, qué recursos ofrecen según una Agenda con respectivos turnos para cada zona.</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Flujo de eventos en el tiempo"/>
-      <sheetName val="Listado Objetos de Dominio"/>
-      <sheetName val="ConjuntoResidencial"/>
-      <sheetName val="ZonaComun"/>
-      <sheetName val="Administrador"/>
-      <sheetName val="Agenda"/>
-      <sheetName val="Publicación"/>
-      <sheetName val="Turno"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>ConjuntoResidencial</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>ZonaComun</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Administrador</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Agenda</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1620,9 +1891,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1637,22 +1908,21 @@
       <c r="A1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="30" t="str">
-        <f>[1]Contextos!$D$5</f>
-        <v>Contexto cuya motivación es Gestionar la estructura física y los recursos disponibles en cada conjunto residencial. Aquí se manejan los datos sobre qué conjuntos existen, dónde están ubicados, qué recursos ofrecen según una Agenda con respectivos turnos para cada zona.</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
@@ -1669,79 +1939,79 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="33" t="str">
+      <c r="D4" s="48" t="str">
         <f>$B$1</f>
         <v>Gestión de conjuntos residenciales</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="49"/>
     </row>
     <row r="6" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="49"/>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="49"/>
     </row>
     <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="49"/>
     </row>
     <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="24" t="s">
+      <c r="A9" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1766,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1777,7 +2047,7 @@
     <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
     <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -1794,84 +2064,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48" t="str">
-        <f>'[2]Listado Objetos de Dominio'!A4</f>
-        <v>ConjuntoResidencial</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="B2" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="65"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="50" t="str">
-        <f>'Listado Objetos de Dominio'!$B$5</f>
-        <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
+      <c r="B3" s="66" t="str">
+        <f>'Listado Objetos de Dominio'!B4</f>
+        <v>Objeto de dominio que representa a cada uno de los conjuntos residenciales existentes.</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="43" t="s">
+      <c r="F4" s="51"/>
+      <c r="G4" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="43"/>
+      <c r="H4" s="59"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1881,52 +2150,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="63" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="41" t="s">
+      <c r="F5" s="51"/>
+      <c r="G5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="44" t="s">
+      <c r="H5" s="57"/>
+      <c r="I5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="46"/>
-      <c r="M5" s="47"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="63"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="37"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -1939,109 +2208,181 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="63"/>
+    </row>
+    <row r="7" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>95</v>
+      </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+    <row r="8" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>95</v>
+      </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+    <row r="9" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+    <row r="10" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="G10" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>99</v>
+      </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+    <row r="11" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="G11" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+    <row r="12" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="G12" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>95</v>
+      </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
@@ -2049,6 +2390,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A1:N1"/>
@@ -2064,9 +2407,8 @@
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{55E21CA2-8FF8-4D5B-80A8-5761C952FB5A}"/>
     <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{EE6F24EF-4ABE-4EFC-84DC-C9FDF3C4EA23}"/>
@@ -2079,21 +2421,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="37.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -2110,84 +2453,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="57" t="str">
-        <f>'[2]Listado Objetos de Dominio'!A5</f>
-        <v>ZonaComun</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
+      <c r="B2" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="60" t="str">
+      <c r="B3" s="89" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="62"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="64"/>
+      <c r="C4" s="93"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="67" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="68"/>
+      <c r="H4" s="97"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2197,52 +2539,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="69" t="s">
+      <c r="L4" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="72" t="s">
+      <c r="M4" s="101" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="75" t="s">
+      <c r="F5" s="95"/>
+      <c r="G5" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="79" t="s">
+      <c r="H5" s="105"/>
+      <c r="I5" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="77" t="s">
+      <c r="K5" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="70"/>
-      <c r="M5" s="73"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="102"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="37"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -2255,73 +2597,220 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="80"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="74"/>
-    </row>
-    <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
+      <c r="I6" s="109"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="103"/>
+    </row>
+    <row r="7" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="68"/>
+    </row>
+    <row r="8" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="71"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="69"/>
+    </row>
+    <row r="9" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="80"/>
+    </row>
+    <row r="10" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="81"/>
+    </row>
+    <row r="11" spans="1:14" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+    </row>
+    <row r="12" spans="1:14" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="78"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+    </row>
+    <row r="13" spans="1:14" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+    </row>
+    <row r="14" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="76"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
+  <mergeCells count="62">
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
@@ -2335,7 +2824,57 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{08B9185A-577F-48B9-9ED8-67B0BBF2A510}"/>
     <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{607A7919-29D4-4751-8490-C72BCB3B0AA7}"/>
@@ -2347,20 +2886,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
     <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="43.109375" style="1" bestFit="1" customWidth="1"/>
@@ -2377,84 +2916,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48" t="str">
-        <f>'[2]Listado Objetos de Dominio'!A6</f>
-        <v>Administrador</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="B2" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="65"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="50" t="str">
-        <f>'Listado Objetos de Dominio'!$B$5</f>
-        <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
+      <c r="B3" s="66" t="str">
+        <f>'Listado Objetos de Dominio'!$B$6</f>
+        <v xml:space="preserve"> Objeto de dominio que representa el Administrador encargado de hacer CRUD a zonas comunes y Usuarios(residentes), tambien encargado de cancelar reservas.</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="43" t="s">
+      <c r="F4" s="51"/>
+      <c r="G4" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="43"/>
+      <c r="H4" s="59"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2464,52 +3002,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="63" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="41" t="s">
+      <c r="F5" s="51"/>
+      <c r="G5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="44" t="s">
+      <c r="H5" s="57"/>
+      <c r="I5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="46"/>
-      <c r="M5" s="47"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="63"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="37"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -2522,134 +3060,166 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="63"/>
+    </row>
+    <row r="7" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="36"/>
+    </row>
+    <row r="8" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="36"/>
+    </row>
+    <row r="9" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="116"/>
+    </row>
+    <row r="10" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="117"/>
+    </row>
+    <row r="11" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="13"/>
+      <c r="E12" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="K5:K6"/>
+  <mergeCells count="29">
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
@@ -2665,8 +3235,22 @@
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K5:K6"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{6A881977-C9D3-4BAB-A0CB-AD08821793D2}"/>
     <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{965D680D-AC4E-4F53-A034-1C2B02BCC038}"/>
@@ -2679,10 +3263,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135EFB96-F09D-4669-AFCD-45B4BA78057C}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F11"/>
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2692,7 +3276,7 @@
     <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
     <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.21875" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -2709,84 +3293,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48" t="str">
-        <f>'[2]Listado Objetos de Dominio'!A7</f>
-        <v>Agenda</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="B2" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="65"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="50" t="str">
-        <f>'Listado Objetos de Dominio'!$B$5</f>
-        <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
+      <c r="B3" s="66" t="str">
+        <f>'Listado Objetos de Dominio'!$B$7</f>
+        <v>Objeto de dominio que representa la Agenda programada de manera especifica para cada zona comun.</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="43" t="s">
+      <c r="F4" s="51"/>
+      <c r="G4" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="43"/>
+      <c r="H4" s="59"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2796,52 +3379,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="63" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="40" t="s">
+      <c r="A5" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="41" t="s">
+      <c r="F5" s="51"/>
+      <c r="G5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="44" t="s">
+      <c r="H5" s="57"/>
+      <c r="I5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="46"/>
-      <c r="M5" s="47"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="63"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="37"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -2854,201 +3437,193 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
-    </row>
-    <row r="7" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="63"/>
+    </row>
+    <row r="7" spans="1:14" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="I7" s="28"/>
+      <c r="J7" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="37"/>
+    </row>
+    <row r="8" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="118" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="91" t="s">
+      <c r="I8" s="74"/>
+      <c r="J8" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="116"/>
+    </row>
+    <row r="9" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="122"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="75"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="121"/>
+    </row>
+    <row r="10" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="118" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="83" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="89" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="86"/>
-    </row>
-    <row r="8" spans="1:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="E10" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="116"/>
+    </row>
+    <row r="11" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="119"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="117"/>
+    </row>
+    <row r="12" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="88"/>
-    </row>
-    <row r="9" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="94" t="s">
+      <c r="B12" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="C12" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E12" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="94" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="25" t="s">
+      <c r="F12" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="86"/>
-    </row>
-    <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="98"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="87"/>
-    </row>
-    <row r="11" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="99"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="12" t="str">
-        <f>G9</f>
-        <v>Agenda-Pol-0002</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="88"/>
-    </row>
-    <row r="12" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="13"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="36"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J13" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J5:J6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -3061,26 +3636,33 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{175DFE60-DD9E-49DC-B6DD-E705858EF325}"/>
@@ -3093,10 +3675,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BE5EAF-3DFC-48B5-92F6-DF96C5003B3E}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A3" zoomScale="69" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3106,7 +3688,7 @@
     <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
     <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -3123,84 +3705,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48" t="str">
-        <f>'[2]Listado Objetos de Dominio'!A7</f>
-        <v>Agenda</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="B2" s="64" t="str">
+        <f>'Listado Objetos de Dominio'!A9</f>
+        <v>Publicación</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="65"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="50" t="str">
-        <f>'Listado Objetos de Dominio'!$B$5</f>
-        <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
+      <c r="B3" s="66" t="str">
+        <f>'Listado Objetos de Dominio'!$B$9</f>
+        <v xml:space="preserve"> Objeto de dominio que representa el medio de comunicación que hay frente de publicar alguna eventualidad.</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="43" t="s">
+      <c r="F4" s="51"/>
+      <c r="G4" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="43"/>
+      <c r="H4" s="59"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -3210,52 +3792,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="63" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="41" t="s">
+      <c r="F5" s="51"/>
+      <c r="G5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="44" t="s">
+      <c r="H5" s="57"/>
+      <c r="I5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="46"/>
-      <c r="M5" s="47"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="63"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="37"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -3268,99 +3850,253 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="63"/>
+    </row>
+    <row r="7" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="125" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="127" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="127" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="127" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="127" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="123"/>
+    </row>
+    <row r="8" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="126"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="124"/>
+    </row>
+    <row r="9" spans="1:14" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="127" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="127" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="127" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="123"/>
+    </row>
+    <row r="10" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="128"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="124"/>
+    </row>
+    <row r="11" spans="1:14" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="125" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="127" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="127" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="127" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="127" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" s="74"/>
+      <c r="J11" s="127" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="123"/>
+    </row>
+    <row r="12" spans="1:14" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="126"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" s="75"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="124"/>
+    </row>
+    <row r="13" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="34"/>
+    </row>
+    <row r="14" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="129" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="123"/>
+    </row>
+    <row r="15" spans="1:14" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="130"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="124"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="60">
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
@@ -3378,6 +4114,49 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{755244C2-D34A-4436-ABEF-3130787CFBF9}"/>
@@ -3390,10 +4169,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC47FB83-9179-46D6-840D-CDDDAC34ECFB}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3420,84 +4199,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48" t="str">
-        <f>'[2]Listado Objetos de Dominio'!A7</f>
-        <v>Agenda</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="B2" s="64" t="str">
+        <f>'Listado Objetos de Dominio'!A8</f>
+        <v>Turno</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="65"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="50" t="str">
-        <f>'Listado Objetos de Dominio'!$B$5</f>
-        <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
+      <c r="B3" s="66" t="str">
+        <f>'Listado Objetos de Dominio'!$B$8</f>
+        <v>Objeto de dominio que representa a cada Turno que esta programado con respecto al tiempo de uso según la zona comun y con respecto a la agenda disponible.</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="43" t="s">
+      <c r="F4" s="51"/>
+      <c r="G4" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="43"/>
+      <c r="H4" s="59"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -3507,52 +4286,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="63" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="41" t="s">
+      <c r="F5" s="51"/>
+      <c r="G5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="44" t="s">
+      <c r="H5" s="57"/>
+      <c r="I5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="46"/>
-      <c r="M5" s="47"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="63"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="37"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -3565,28 +4344,30 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="63"/>
     </row>
     <row r="7" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="11" t="s">
+        <v>139</v>
+      </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>88</v>
+        <v>78</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
@@ -3600,10 +4381,10 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -3622,7 +4403,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
@@ -3639,14 +4420,46 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
     </row>
+    <row r="13" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="G13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="131" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H14" s="131"/>
+    </row>
+    <row r="15" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="G15" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15" s="131" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H16" s="131"/>
+    </row>
+    <row r="17" spans="7:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="G17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H17" s="131" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
@@ -3662,8 +4475,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{72BB53BB-A255-4E65-8E13-6A32013B466E}"/>
@@ -3675,12 +4486,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C279D002CEC08F42B7087C30E58D0266" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5713f579c7011938dc4987ae8981b8f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3219184d-29ab-4105-b29c-8e343e335d59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae0a0ff84a3c6712467f60982d6e378d" ns2:_="">
     <xsd:import namespace="3219184d-29ab-4105-b29c-8e343e335d59"/>
@@ -3824,7 +4629,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3833,24 +4638,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AEECCE0-61F9-4782-94C5-382F8EFF459D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3868,10 +4662,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Doo-Doc/Seccion # 7/ConjuntosResidenciales - Event Storming.xlsx
+++ b/Doo-Doc/Seccion # 7/ConjuntosResidenciales - Event Storming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Seccion # 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="723" documentId="13_ncr:1_{6A1F0B49-DD34-4DE4-8D57-041CC992534B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{551C5C8F-FE83-45E0-A63D-3A6AA7E3DC26}"/>
+  <xr:revisionPtr revIDLastSave="1213" documentId="13_ncr:1_{6A1F0B49-DD34-4DE4-8D57-041CC992534B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A90DADA1-56E2-4441-BB89-F5BB490E5F85}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="196">
   <si>
     <t>Descripción</t>
   </si>
@@ -270,9 +270,6 @@
     <t>Agenda-Pol-0001</t>
   </si>
   <si>
-    <t>No pueden haber más de una agenda con la misma zona común</t>
-  </si>
-  <si>
     <t>La agenda no puede contener turnos que no estén dentro de los horarios de la zona común.</t>
   </si>
   <si>
@@ -285,15 +282,9 @@
     <t>Turno-Pol-0001</t>
   </si>
   <si>
-    <t>No pueden haber más de un turno a la misma hora de inicio y finalización para la misma agenda.</t>
-  </si>
-  <si>
     <t>Turno-Pol-0002</t>
   </si>
   <si>
-    <t>El</t>
-  </si>
-  <si>
     <t>La agenda necesita de una zona común asociada</t>
   </si>
   <si>
@@ -546,15 +537,9 @@
     <t>No puede tener un tiempo de uso mayor a la diferencia de hora de cierre y hora de inicio</t>
   </si>
   <si>
-    <t>Agenda-Pol0004</t>
-  </si>
-  <si>
     <t>No puede haber más de una fecha con la misma agenda y zona común.</t>
   </si>
   <si>
-    <t>Turnos agenda repartidos</t>
-  </si>
-  <si>
     <t>Turno-Pol0002</t>
   </si>
   <si>
@@ -568,6 +553,87 @@
   </si>
   <si>
     <t>No puede haber un turno disponible en una agenda que no está disponible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No puede haber más de una agenda con la misma fecha para la misma zona común. </t>
+  </si>
+  <si>
+    <t>Agenda-Pol0003</t>
+  </si>
+  <si>
+    <t>Agenda buscada</t>
+  </si>
+  <si>
+    <t>Eliminar agenda</t>
+  </si>
+  <si>
+    <t>Crear Agenda</t>
+  </si>
+  <si>
+    <t>Buscar conjunto residencial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asociar residente </t>
+  </si>
+  <si>
+    <t>Acción de eliminar a un administrador del conjunto residencial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjunto residencial registrado </t>
+  </si>
+  <si>
+    <t>Registrar conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Buscar zona común</t>
+  </si>
+  <si>
+    <t>Crear Zona común.</t>
+  </si>
+  <si>
+    <t>Administrador creado</t>
+  </si>
+  <si>
+    <t>Crear administrador</t>
+  </si>
+  <si>
+    <t>Publicación eliminada</t>
+  </si>
+  <si>
+    <t>Buscar publicacion</t>
+  </si>
+  <si>
+    <t>Modificar publicacion</t>
+  </si>
+  <si>
+    <t>Publicacion creada</t>
+  </si>
+  <si>
+    <t>Crear publicación</t>
+  </si>
+  <si>
+    <t>Crear turno</t>
+  </si>
+  <si>
+    <t>Acción de crear un turno con horarios definidos.</t>
+  </si>
+  <si>
+    <t>Información agenda</t>
+  </si>
+  <si>
+    <t>Información de la agenda a la cual se encuentra asociado el turno.</t>
+  </si>
+  <si>
+    <t>Modificar turno</t>
+  </si>
+  <si>
+    <t>Acción de modificar un turno especifico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar turno </t>
+  </si>
+  <si>
+    <t>Acción de eliminar un turno</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1142,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1106,15 +1172,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1145,15 +1202,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1163,18 +1211,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1190,284 +1232,251 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1566,6 +1575,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1905,113 +1918,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47"/>
+      <c r="B2" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="48" t="str">
+      <c r="D4" s="42" t="str">
         <f>$B$1</f>
         <v>Gestión de conjuntos residenciales</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="49"/>
+      <c r="D5" s="43"/>
     </row>
     <row r="6" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="49"/>
+      <c r="D6" s="43"/>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="43"/>
     </row>
     <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="49"/>
+      <c r="D8" s="43"/>
     </row>
     <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="50"/>
+      <c r="D9" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2034,10 +2047,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M3"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2064,142 +2077,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="66" t="str">
+      <c r="B3" s="60" t="str">
         <f>'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que representa a cada uno de los conjuntos residenciales existentes.</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="59" t="s">
+      <c r="F4" s="46"/>
+      <c r="G4" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="59"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="62" t="s">
+      <c r="L4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="63" t="s">
+      <c r="M4" s="57" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="57" t="s">
+      <c r="F5" s="46"/>
+      <c r="G5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="60" t="s">
+      <c r="H5" s="51"/>
+      <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="J5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="62"/>
-      <c r="M5" s="63"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="14" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -2208,188 +2221,389 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="63"/>
-    </row>
-    <row r="7" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="H7" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="100"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="100"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="100"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="99"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C12" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D12" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12" t="s">
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="100"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="100"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="99"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H16" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="I16" s="24"/>
+      <c r="J16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12" t="s">
+      <c r="H20" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="H9" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12" t="s">
+      <c r="I20" s="24"/>
+      <c r="J20" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" s="28" t="s">
+        <v>178</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="41">
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="L7:L11"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B3:M3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
@@ -2406,7 +2620,6 @@
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -2421,11 +2634,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13:J14"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2453,142 +2666,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="89" t="str">
+      <c r="B3" s="67" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="91"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="94" t="s">
+      <c r="E4" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="97"/>
+      <c r="H4" s="75"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="98" t="s">
+      <c r="L4" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="101" t="s">
+      <c r="M4" s="79" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="94" t="s">
+      <c r="E5" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="95"/>
-      <c r="G5" s="104" t="s">
+      <c r="F5" s="73"/>
+      <c r="G5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="105"/>
-      <c r="I5" s="108" t="s">
+      <c r="H5" s="83"/>
+      <c r="I5" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="110" t="s">
+      <c r="J5" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="106" t="s">
+      <c r="K5" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="99"/>
-      <c r="M5" s="102"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="80"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="14" t="s">
+      <c r="A6" s="91"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -2597,220 +2810,303 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="109"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="103"/>
-    </row>
-    <row r="7" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="70" t="s">
+      <c r="I6" s="87"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="81"/>
+    </row>
+    <row r="7" spans="1:14" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="106"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="108" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="104"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="107" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="72" t="s">
+      <c r="K10" s="92"/>
+      <c r="L10" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="108" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="92" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="92" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="92" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="112"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+    </row>
+    <row r="14" spans="1:14" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="110" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="110" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="110" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E14" s="110" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72" t="s">
+      <c r="H14" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="68"/>
-    </row>
-    <row r="8" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="69"/>
-    </row>
-    <row r="9" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="82" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84" t="s">
-        <v>111</v>
-      </c>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="80"/>
-    </row>
-    <row r="10" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="81"/>
-    </row>
-    <row r="11" spans="1:14" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="74" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="E11" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="74" t="s">
-        <v>164</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-    </row>
-    <row r="12" spans="1:14" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="78"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-    </row>
-    <row r="13" spans="1:14" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="76" t="s">
+      <c r="M14" s="110" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="110"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="H15" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-    </row>
-    <row r="14" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B7:B9"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
@@ -2827,52 +3123,6 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -2886,10 +3136,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M3"/>
+      <selection activeCell="A7" sqref="A7:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2916,142 +3166,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="66" t="str">
+      <c r="B3" s="60" t="str">
         <f>'Listado Objetos de Dominio'!$B$6</f>
         <v xml:space="preserve"> Objeto de dominio que representa el Administrador encargado de hacer CRUD a zonas comunes y Usuarios(residentes), tambien encargado de cancelar reservas.</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="59" t="s">
+      <c r="F4" s="46"/>
+      <c r="G4" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="59"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="62" t="s">
+      <c r="L4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="63" t="s">
+      <c r="M4" s="57" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="57" t="s">
+      <c r="F5" s="46"/>
+      <c r="G5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="60" t="s">
+      <c r="H5" s="51"/>
+      <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="J5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="62"/>
-      <c r="M5" s="63"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="14" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -3060,166 +3310,243 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="63"/>
-    </row>
-    <row r="7" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="31" t="s">
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="G7" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="H7" s="92" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="100"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="99"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="B10" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="K10" s="24"/>
+      <c r="L10" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="92" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="92" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="M11" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="31" t="s">
+    </row>
+    <row r="12" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="36"/>
-    </row>
-    <row r="8" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31" t="s">
+      <c r="G13" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="36"/>
-    </row>
-    <row r="9" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="82" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="82" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" s="82" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="116"/>
-    </row>
-    <row r="10" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="117"/>
-    </row>
-    <row r="11" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31" t="s">
+      <c r="I13" s="24"/>
+      <c r="J13" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="36"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E12" s="32"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E14" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="40">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
@@ -3235,20 +3562,6 @@
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -3263,10 +3576,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135EFB96-F09D-4669-AFCD-45B4BA78057C}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="C9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3293,142 +3606,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="66" t="str">
+      <c r="B3" s="60" t="str">
         <f>'Listado Objetos de Dominio'!$B$7</f>
         <v>Objeto de dominio que representa la Agenda programada de manera especifica para cada zona comun.</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="59" t="s">
+      <c r="F4" s="46"/>
+      <c r="G4" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="59"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="62" t="s">
+      <c r="L4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="63" t="s">
+      <c r="M4" s="57" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="57" t="s">
+      <c r="F5" s="46"/>
+      <c r="G5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="60" t="s">
+      <c r="H5" s="51"/>
+      <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="J5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="62"/>
-      <c r="M5" s="63"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="14" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -3437,193 +3750,291 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="63"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
     </row>
     <row r="7" spans="1:14" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="28" t="s">
+      <c r="A7" s="98" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="G7" s="28" t="s">
+      <c r="E7" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="99"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="37"/>
-    </row>
-    <row r="8" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="118" t="s">
+      <c r="I9" s="92"/>
+      <c r="J9" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="92"/>
+      <c r="L9" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="96" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="100"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101" t="s">
+        <v>171</v>
+      </c>
+      <c r="M10" s="102"/>
+    </row>
+    <row r="11" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="99"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="109" t="s">
+        <v>163</v>
+      </c>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="97"/>
+    </row>
+    <row r="12" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="100"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="99"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" s="109" t="s">
+        <v>163</v>
+      </c>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="82" t="s">
+      <c r="B15" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="82" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="74"/>
-      <c r="J8" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="116"/>
-    </row>
-    <row r="9" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="122"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="75"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="121"/>
-    </row>
-    <row r="10" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="118" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="82" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="82" t="s">
+      <c r="E15" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82" t="s">
+      <c r="F15" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="116"/>
-    </row>
-    <row r="11" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="119"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="117"/>
-    </row>
-    <row r="12" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="36"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J13" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G14" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>167</v>
+      <c r="M15" s="28" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="50">
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J9:J11"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -3640,29 +4051,6 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{175DFE60-DD9E-49DC-B6DD-E705858EF325}"/>
@@ -3675,10 +4063,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BE5EAF-3DFC-48B5-92F6-DF96C5003B3E}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="69" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:M12"/>
+    <sheetView topLeftCell="A8" zoomScale="69" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3705,143 +4093,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="64" t="str">
+      <c r="B2" s="58" t="str">
         <f>'Listado Objetos de Dominio'!A9</f>
         <v>Publicación</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="66" t="str">
+      <c r="B3" s="60" t="str">
         <f>'Listado Objetos de Dominio'!$B$9</f>
         <v xml:space="preserve"> Objeto de dominio que representa el medio de comunicación que hay frente de publicar alguna eventualidad.</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="59" t="s">
+      <c r="F4" s="46"/>
+      <c r="G4" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="59"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="62" t="s">
+      <c r="L4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="63" t="s">
+      <c r="M4" s="57" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="57" t="s">
+      <c r="F5" s="46"/>
+      <c r="G5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="60" t="s">
+      <c r="H5" s="51"/>
+      <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="J5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="62"/>
-      <c r="M5" s="63"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="14" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -3850,253 +4238,379 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="63"/>
-    </row>
-    <row r="7" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="125" t="s">
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="92" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="127" t="s">
+      <c r="E7" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="92" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="127" t="s">
+      <c r="G7" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="92" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="127" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" s="127" t="s">
+      <c r="I7" s="92"/>
+      <c r="J7" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92" t="s">
+        <v>183</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="100"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="100"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="H9" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="99"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127" t="s">
+      <c r="C11" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="92" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="92" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92" t="s">
+        <v>186</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="99"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="92" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="123"/>
-    </row>
-    <row r="8" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="126"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="124"/>
-    </row>
-    <row r="9" spans="1:14" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+      <c r="M14" s="29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="99"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="127" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="127" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="127" t="s">
+      <c r="B16" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="92" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="127" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" s="127" t="s">
-        <v>153</v>
-      </c>
-      <c r="G9" s="24" t="s">
+      <c r="I17" s="92"/>
+      <c r="J17" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" s="28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="99"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="H9" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="123"/>
-    </row>
-    <row r="10" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="124"/>
-    </row>
-    <row r="11" spans="1:14" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="125" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="127" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="127" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="127" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" s="127" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="127" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="I11" s="74"/>
-      <c r="J11" s="127" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="123"/>
-    </row>
-    <row r="12" spans="1:14" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="126"/>
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="I12" s="75"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="124"/>
-    </row>
-    <row r="13" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="34"/>
-    </row>
-    <row r="14" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="129" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="74" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="123"/>
-    </row>
-    <row r="15" spans="1:14" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="130"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="124"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="33" t="s">
+        <v>185</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="63">
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A7:A10"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
@@ -4113,50 +4627,6 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{755244C2-D34A-4436-ABEF-3130787CFBF9}"/>
@@ -4169,10 +4639,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC47FB83-9179-46D6-840D-CDDDAC34ECFB}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4182,7 +4652,7 @@
     <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
     <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="34.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -4199,143 +4669,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="64" t="str">
+      <c r="B2" s="58" t="str">
         <f>'Listado Objetos de Dominio'!A8</f>
         <v>Turno</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="66" t="str">
+      <c r="B3" s="60" t="str">
         <f>'Listado Objetos de Dominio'!$B$8</f>
         <v>Objeto de dominio que representa a cada Turno que esta programado con respecto al tiempo de uso según la zona comun y con respecto a la agenda disponible.</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="59" t="s">
+      <c r="F4" s="46"/>
+      <c r="G4" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="59"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="62" t="s">
+      <c r="L4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="63" t="s">
+      <c r="M4" s="57" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="57" t="s">
+      <c r="F5" s="46"/>
+      <c r="G5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="60" t="s">
+      <c r="H5" s="51"/>
+      <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="J5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="62"/>
-      <c r="M5" s="63"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="14" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -4344,125 +4814,236 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="63"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
     </row>
     <row r="7" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12" t="s">
+      <c r="A7" s="110" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="110" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="110" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="110" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="110" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="153" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="110"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
+      <c r="H8" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="110"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+    </row>
+    <row r="10" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="110" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="110" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="110" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="110" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="110" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="110" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="94"/>
+      <c r="L10" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
+      <c r="M10" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="13" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="G13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="131" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H14" s="131"/>
-    </row>
-    <row r="15" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="G15" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H15" s="131" t="s">
-        <v>170</v>
+    </row>
+    <row r="11" spans="1:14" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="110"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+    </row>
+    <row r="12" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+    </row>
+    <row r="13" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H16" s="131"/>
-    </row>
-    <row r="17" spans="7:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="G17" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H17" s="131" t="s">
-        <v>173</v>
-      </c>
+      <c r="H16" s="36"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="36"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="36"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="36"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
+  <mergeCells count="39">
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -4475,6 +5056,11 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{72BB53BB-A255-4E65-8E13-6A32013B466E}"/>
@@ -4486,6 +5072,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C279D002CEC08F42B7087C30E58D0266" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5713f579c7011938dc4987ae8981b8f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3219184d-29ab-4105-b29c-8e343e335d59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae0a0ff84a3c6712467f60982d6e378d" ns2:_="">
     <xsd:import namespace="3219184d-29ab-4105-b29c-8e343e335d59"/>
@@ -4629,15 +5224,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4645,6 +5231,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AEECCE0-61F9-4782-94C5-382F8EFF459D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4658,14 +5252,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Doo-Doc/Seccion # 7/ConjuntosResidenciales - Event Storming.xlsx
+++ b/Doo-Doc/Seccion # 7/ConjuntosResidenciales - Event Storming.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Seccion # 7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Seccion # 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1213" documentId="13_ncr:1_{6A1F0B49-DD34-4DE4-8D57-041CC992534B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A90DADA1-56E2-4441-BB89-F5BB490E5F85}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05F4909-7F27-4A2A-88DD-FA156467696E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="3" activeTab="3" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -1250,6 +1250,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1274,6 +1283,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1319,10 +1352,31 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1415,67 +1469,13 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1575,10 +1575,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1882,15 +1878,15 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18"/>
     </row>
   </sheetData>
@@ -1909,35 +1905,35 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-    </row>
-    <row r="2" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
@@ -1951,7 +1947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>29</v>
       </c>
@@ -1961,12 +1957,12 @@
       <c r="C4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="42" t="str">
+      <c r="D4" s="45" t="str">
         <f>$B$1</f>
         <v>Gestión de conjuntos residenciales</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>30</v>
       </c>
@@ -1976,9 +1972,9 @@
       <c r="C5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="43"/>
-    </row>
-    <row r="6" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="46"/>
+    </row>
+    <row r="6" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>31</v>
       </c>
@@ -1988,9 +1984,9 @@
       <c r="C6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="43"/>
-    </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D6" s="46"/>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>32</v>
       </c>
@@ -2000,9 +1996,9 @@
       <c r="C7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="43"/>
-    </row>
-    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D7" s="46"/>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>33</v>
       </c>
@@ -2012,9 +2008,9 @@
       <c r="C8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="43"/>
-    </row>
-    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D8" s="46"/>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>57</v>
       </c>
@@ -2024,7 +2020,7 @@
       <c r="C9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="44"/>
+      <c r="D9" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2049,111 +2045,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="60" t="str">
+      <c r="B3" s="54" t="str">
         <f>'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que representa a cada uno de los conjuntos residenciales existentes.</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="53" t="s">
+      <c r="F4" s="57"/>
+      <c r="G4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="53"/>
+      <c r="H4" s="64"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2163,52 +2159,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="68" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="51" t="s">
+      <c r="F5" s="57"/>
+      <c r="G5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="54" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="57"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="48"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="68"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -2221,198 +2217,198 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
-    </row>
-    <row r="7" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="98" t="s">
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="68"/>
+    </row>
+    <row r="7" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92" t="s">
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92" t="s">
+      <c r="I7" s="48"/>
+      <c r="J7" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92" t="s">
+      <c r="K7" s="48"/>
+      <c r="L7" s="48" t="s">
         <v>38</v>
       </c>
       <c r="M7" s="28" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="100"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
+    <row r="8" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
       <c r="M8" s="28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="100"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
+    <row r="9" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
       <c r="M9" s="28" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="100"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
+    <row r="10" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
       <c r="M10" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="99"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
+    <row r="11" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="53"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
       <c r="M11" s="28" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="98" t="s">
+    <row r="12" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92" t="s">
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="92" t="s">
+      <c r="H12" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92" t="s">
+      <c r="I12" s="48"/>
+      <c r="J12" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92" t="s">
+      <c r="K12" s="48"/>
+      <c r="L12" s="48" t="s">
         <v>81</v>
       </c>
       <c r="M12" s="28" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="100"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
+    <row r="13" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="52"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
       <c r="M13" s="28" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="100"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
+    <row r="14" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="52"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
       <c r="M14" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="99"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
+    <row r="15" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
       <c r="M15" s="28" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>90</v>
       </c>
@@ -2445,7 +2441,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>83</v>
       </c>
@@ -2478,7 +2474,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>31</v>
       </c>
@@ -2511,7 +2507,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>31</v>
       </c>
@@ -2544,7 +2540,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>83</v>
       </c>
@@ -2579,35 +2575,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="L7:L11"/>
-    <mergeCell ref="K7:K11"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D5:D6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -2620,6 +2587,35 @@
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="L7:L11"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="C12:C15"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -2636,113 +2632,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="84"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="67" t="str">
+      <c r="B3" s="85" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="69"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="71"/>
+      <c r="C4" s="89"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74" t="s">
+      <c r="F4" s="91"/>
+      <c r="G4" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="75"/>
+      <c r="H4" s="93"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2752,52 +2748,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="76" t="s">
+      <c r="L4" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="79" t="s">
+      <c r="M4" s="97" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="90" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="82" t="s">
+      <c r="F5" s="91"/>
+      <c r="G5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="86" t="s">
+      <c r="H5" s="101"/>
+      <c r="I5" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88" t="s">
+      <c r="J5" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="84" t="s">
+      <c r="K5" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="77"/>
-      <c r="M5" s="80"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="91"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="48"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="98"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="109"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -2810,29 +2806,29 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="81"/>
-    </row>
-    <row r="7" spans="1:14" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="103" t="s">
+      <c r="I6" s="105"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="99"/>
+    </row>
+    <row r="7" spans="1:14" ht="88.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="74" t="s">
         <v>103</v>
       </c>
       <c r="G7" s="24" t="s">
@@ -2841,129 +2837,129 @@
       <c r="H7" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94" t="s">
+      <c r="I7" s="74"/>
+      <c r="J7" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94" t="s">
+      <c r="K7" s="74"/>
+      <c r="L7" s="74" t="s">
         <v>40</v>
       </c>
       <c r="M7" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="106"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="94" t="s">
+    <row r="8" spans="1:14" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="72"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="94" t="s">
+      <c r="H8" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="108" t="s">
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="104"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="107" t="s">
+    <row r="9" spans="1:14" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="73"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="37" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="92" t="s">
+      <c r="F10" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="92" t="s">
+      <c r="G10" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="H10" s="92" t="s">
+      <c r="H10" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92" t="s">
+      <c r="I10" s="48"/>
+      <c r="J10" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92" t="s">
+      <c r="K10" s="48"/>
+      <c r="L10" s="48" t="s">
         <v>39</v>
       </c>
       <c r="M10" s="26" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="108" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="38" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111" t="s">
+    <row r="12" spans="1:14" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="92" t="s">
+      <c r="E12" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="92" t="s">
+      <c r="F12" s="48" t="s">
         <v>161</v>
       </c>
       <c r="G12" s="24" t="s">
@@ -2972,54 +2968,54 @@
       <c r="H12" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92" t="s">
+      <c r="I12" s="48"/>
+      <c r="J12" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92" t="s">
+      <c r="K12" s="48"/>
+      <c r="L12" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="92" t="s">
+      <c r="M12" s="48" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="112"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
+    <row r="13" spans="1:14" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="79"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="21" t="s">
         <v>113</v>
       </c>
       <c r="H13" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-    </row>
-    <row r="14" spans="1:14" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="110" t="s">
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+    </row>
+    <row r="14" spans="1:14" ht="120.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="110" t="s">
+      <c r="C14" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="110" t="s">
+      <c r="D14" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="110" t="s">
+      <c r="E14" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="110" t="s">
+      <c r="F14" s="77" t="s">
         <v>116</v>
       </c>
       <c r="G14" s="24" t="s">
@@ -3028,50 +3024,74 @@
       <c r="H14" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110" t="s">
+      <c r="I14" s="77"/>
+      <c r="J14" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110" t="s">
+      <c r="K14" s="77"/>
+      <c r="L14" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="110" t="s">
+      <c r="M14" s="77" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="110"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
+    <row r="15" spans="1:14" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="24" t="s">
         <v>117</v>
       </c>
       <c r="H15" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="L14:L15"/>
     <mergeCell ref="M14:M15"/>
@@ -3088,41 +3108,17 @@
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -3138,111 +3134,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:M13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="43.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="43.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="60" t="str">
+      <c r="B3" s="54" t="str">
         <f>'Listado Objetos de Dominio'!$B$6</f>
         <v xml:space="preserve"> Objeto de dominio que representa el Administrador encargado de hacer CRUD a zonas comunes y Usuarios(residentes), tambien encargado de cancelar reservas.</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="53" t="s">
+      <c r="F4" s="57"/>
+      <c r="G4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="53"/>
+      <c r="H4" s="64"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -3252,52 +3248,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="68" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="51" t="s">
+      <c r="F5" s="57"/>
+      <c r="G5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="54" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="57"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="48"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="68"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -3310,84 +3306,84 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
-    </row>
-    <row r="7" spans="1:14" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="98" t="s">
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="68"/>
+    </row>
+    <row r="7" spans="1:14" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92" t="s">
+      <c r="I7" s="48"/>
+      <c r="J7" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92" t="s">
+      <c r="K7" s="48"/>
+      <c r="L7" s="48" t="s">
         <v>43</v>
       </c>
       <c r="M7" s="28" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="100"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
+    <row r="8" spans="1:14" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
       <c r="M8" s="28" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="99"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
+    <row r="9" spans="1:14" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="53"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
       <c r="M9" s="28" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>31</v>
       </c>
@@ -3424,63 +3420,63 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="92" t="s">
+      <c r="D11" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="92" t="s">
+      <c r="E11" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="92" t="s">
+      <c r="F11" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="92" t="s">
+      <c r="G11" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="92" t="s">
+      <c r="H11" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92" t="s">
+      <c r="I11" s="48"/>
+      <c r="J11" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92" t="s">
+      <c r="K11" s="48"/>
+      <c r="L11" s="48" t="s">
         <v>181</v>
       </c>
       <c r="M11" s="28" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
       <c r="M12" s="33" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>31</v>
       </c>
@@ -3517,36 +3513,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E14" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
@@ -3562,6 +3533,31 @@
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -3578,111 +3574,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135EFB96-F09D-4669-AFCD-45B4BA78057C}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="C9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="60" t="str">
+      <c r="B3" s="54" t="str">
         <f>'Listado Objetos de Dominio'!$B$7</f>
         <v>Objeto de dominio que representa la Agenda programada de manera especifica para cada zona comun.</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="53" t="s">
+      <c r="F4" s="57"/>
+      <c r="G4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="53"/>
+      <c r="H4" s="64"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -3692,52 +3688,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="68" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="51" t="s">
+      <c r="F5" s="57"/>
+      <c r="G5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="54" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="57"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="48"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="68"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -3750,83 +3746,83 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
-    </row>
-    <row r="7" spans="1:14" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="98" t="s">
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="68"/>
+    </row>
+    <row r="7" spans="1:14" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92" t="s">
+      <c r="I7" s="48"/>
+      <c r="J7" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92" t="s">
+      <c r="K7" s="48"/>
+      <c r="L7" s="48" t="s">
         <v>63</v>
       </c>
       <c r="M7" s="29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="99"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
+    <row r="8" spans="1:14" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="53"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
       <c r="M8" s="29" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="98" t="s">
+    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="92" t="s">
+      <c r="E9" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="92" t="s">
+      <c r="F9" s="48" t="s">
         <v>134</v>
       </c>
       <c r="G9" s="24" t="s">
@@ -3835,75 +3831,75 @@
       <c r="H9" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92" t="s">
+      <c r="I9" s="48"/>
+      <c r="J9" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="92"/>
+      <c r="K9" s="48"/>
       <c r="L9" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="96" t="s">
+      <c r="M9" s="110" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="100"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
+    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="52"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="22" t="s">
         <v>73</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101" t="s">
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="M10" s="102"/>
-    </row>
-    <row r="11" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="99"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
+      <c r="M10" s="111"/>
+    </row>
+    <row r="11" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="53"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="H11" s="109" t="s">
+      <c r="H11" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="97"/>
-    </row>
-    <row r="12" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="98" t="s">
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="112"/>
+    </row>
+    <row r="12" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="92" t="s">
+      <c r="E12" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="92" t="s">
+      <c r="F12" s="48" t="s">
         <v>79</v>
       </c>
       <c r="G12" s="24" t="s">
@@ -3912,61 +3908,61 @@
       <c r="H12" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92" t="s">
+      <c r="I12" s="48"/>
+      <c r="J12" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92" t="s">
+      <c r="K12" s="48"/>
+      <c r="L12" s="48" t="s">
         <v>45</v>
       </c>
       <c r="M12" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="100"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
+    <row r="13" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="52"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="22" t="s">
         <v>73</v>
       </c>
       <c r="H13" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
       <c r="M13" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="99"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
+    <row r="14" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="53"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
       <c r="G14" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="H14" s="109" t="s">
+      <c r="H14" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
       <c r="M14" s="33" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>31</v>
       </c>
@@ -4001,36 +3997,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="I12:I14"/>
@@ -4047,10 +4013,40 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{175DFE60-DD9E-49DC-B6DD-E705858EF325}"/>
@@ -4065,112 +4061,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BE5EAF-3DFC-48B5-92F6-DF96C5003B3E}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="69" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="58" t="str">
+      <c r="B2" s="69" t="str">
         <f>'Listado Objetos de Dominio'!A9</f>
         <v>Publicación</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="60" t="str">
+      <c r="B3" s="54" t="str">
         <f>'Listado Objetos de Dominio'!$B$9</f>
         <v xml:space="preserve"> Objeto de dominio que representa el medio de comunicación que hay frente de publicar alguna eventualidad.</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="53" t="s">
+      <c r="F4" s="57"/>
+      <c r="G4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="53"/>
+      <c r="H4" s="64"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -4180,52 +4176,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="68" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="51" t="s">
+      <c r="F5" s="57"/>
+      <c r="G5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="54" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="57"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="48"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="68"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -4238,121 +4234,121 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
-    </row>
-    <row r="7" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="98" t="s">
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="68"/>
+    </row>
+    <row r="7" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92" t="s">
+      <c r="I7" s="48"/>
+      <c r="J7" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92" t="s">
+      <c r="K7" s="48"/>
+      <c r="L7" s="48" t="s">
         <v>183</v>
       </c>
       <c r="M7" s="28" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="100"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
+    <row r="8" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
       <c r="M8" s="33" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="100"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="92" t="s">
+    <row r="9" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="H9" s="92" t="s">
+      <c r="H9" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
       <c r="M9" s="28" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="99"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
+    <row r="10" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="53"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
       <c r="M10" s="35" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="92" t="s">
+      <c r="D11" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="92" t="s">
+      <c r="E11" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="92" t="s">
+      <c r="F11" s="48" t="s">
         <v>150</v>
       </c>
       <c r="G11" s="24" t="s">
@@ -4361,75 +4357,75 @@
       <c r="H11" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92" t="s">
+      <c r="I11" s="48"/>
+      <c r="J11" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92" t="s">
+      <c r="K11" s="48"/>
+      <c r="L11" s="48" t="s">
         <v>186</v>
       </c>
       <c r="M11" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="98" t="s">
+    <row r="12" spans="1:14" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="92" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="H12" s="92" t="s">
+      <c r="H12" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
       <c r="M12" s="33" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="99"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
+    <row r="13" spans="1:14" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
       <c r="M13" s="35" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="98" t="s">
+    <row r="14" spans="1:14" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="92" t="s">
+      <c r="D14" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="E14" s="92" t="s">
+      <c r="E14" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="92" t="s">
+      <c r="F14" s="48" t="s">
         <v>154</v>
       </c>
       <c r="G14" s="24" t="s">
@@ -4438,40 +4434,40 @@
       <c r="H14" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92" t="s">
+      <c r="I14" s="48"/>
+      <c r="J14" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92" t="s">
+      <c r="K14" s="48"/>
+      <c r="L14" s="48" t="s">
         <v>46</v>
       </c>
       <c r="M14" s="29" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="99"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
+    <row r="15" spans="1:14" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
       <c r="G15" s="24" t="s">
         <v>144</v>
       </c>
       <c r="H15" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
       <c r="M15" s="33" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>31</v>
       </c>
@@ -4504,23 +4500,23 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="98" t="s">
+    <row r="17" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="92" t="s">
+      <c r="E17" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="92" t="s">
+      <c r="F17" s="48" t="s">
         <v>153</v>
       </c>
       <c r="G17" s="24" t="s">
@@ -4529,59 +4525,70 @@
       <c r="H17" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92" t="s">
+      <c r="I17" s="48"/>
+      <c r="J17" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92" t="s">
+      <c r="K17" s="48"/>
+      <c r="L17" s="48" t="s">
         <v>46</v>
       </c>
       <c r="M17" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="99"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
+    <row r="18" spans="1:13" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="53"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="24" t="s">
         <v>144</v>
       </c>
       <c r="H18" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
       <c r="M18" s="33" t="s">
         <v>185</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="A17:A18"/>
@@ -4598,21 +4605,419 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A12:A13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{755244C2-D34A-4436-ABEF-3130787CFBF9}"/>
+    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{F5A9893C-CE5B-47AC-8BA0-456E89214E9A}"/>
+    <hyperlink ref="D1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{238F79C9-7DA8-4F58-84A3-6CBEF6586270}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC47FB83-9179-46D6-840D-CDDDAC34ECFB}">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38" style="1" customWidth="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="69" t="str">
+        <f>'Listado Objetos de Dominio'!A8</f>
+        <v>Turno</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="54" t="str">
+        <f>'Listado Objetos de Dominio'!$B$8</f>
+        <v>Objeto de dominio que representa a cada Turno que esta programado con respecto al tiempo de uso según la zona comun y con respecto a la agenda disponible.</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="57"/>
+      <c r="G4" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="64"/>
+      <c r="I4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="57"/>
+      <c r="G5" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="62"/>
+      <c r="I5" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="67"/>
+      <c r="M5" s="68"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="68"/>
+    </row>
+    <row r="7" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+    </row>
+    <row r="10" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="74"/>
+      <c r="L10" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="77" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="142.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+    </row>
+    <row r="12" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+    </row>
+    <row r="13" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H16" s="36"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="36"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="36"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="36"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
@@ -4627,401 +5032,15 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{755244C2-D34A-4436-ABEF-3130787CFBF9}"/>
-    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{F5A9893C-CE5B-47AC-8BA0-456E89214E9A}"/>
-    <hyperlink ref="D1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{238F79C9-7DA8-4F58-84A3-6CBEF6586270}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC47FB83-9179-46D6-840D-CDDDAC34ECFB}">
-  <dimension ref="A1:N20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="34.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="58" t="str">
-        <f>'Listado Objetos de Dominio'!A8</f>
-        <v>Turno</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="60" t="str">
-        <f>'Listado Objetos de Dominio'!$B$8</f>
-        <v>Objeto de dominio que representa a cada Turno que esta programado con respecto al tiempo de uso según la zona comun y con respecto a la agenda disponible.</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="57"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
-    </row>
-    <row r="7" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="110" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="110" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="110" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="110" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="110" t="s">
-        <v>190</v>
-      </c>
-      <c r="F7" s="110" t="s">
-        <v>191</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="153" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="110"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="110"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-    </row>
-    <row r="10" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="110" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="110" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" s="110" t="s">
-        <v>193</v>
-      </c>
-      <c r="D10" s="110" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="110" t="s">
-        <v>190</v>
-      </c>
-      <c r="F10" s="110" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" s="94"/>
-      <c r="L10" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="110" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="110"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-    </row>
-    <row r="12" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="110"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-    </row>
-    <row r="13" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H16" s="36"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" s="36"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H18" s="36"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H19" s="36"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H20" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="39">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
@@ -5038,29 +5057,6 @@
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{72BB53BB-A255-4E65-8E13-6A32013B466E}"/>
@@ -5072,12 +5068,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5225,15 +5218,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5257,18 +5262,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Doo-Doc/Seccion # 7/ConjuntosResidenciales - Event Storming.xlsx
+++ b/Doo-Doc/Seccion # 7/ConjuntosResidenciales - Event Storming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Seccion # 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05F4909-7F27-4A2A-88DD-FA156467696E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DF4C1B-9B9D-46C1-A102-F0C926A3B81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="3" activeTab="3" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="5" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -1283,6 +1283,42 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1307,9 +1343,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1319,38 +1352,113 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1360,114 +1468,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1878,15 +1878,15 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18"/>
     </row>
   </sheetData>
@@ -1905,15 +1905,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>27</v>
       </c>
@@ -1923,7 +1923,7 @@
       <c r="C1" s="40"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>28</v>
       </c>
@@ -1933,7 +1933,7 @@
       <c r="C2" s="43"/>
       <c r="D2" s="44"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>29</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>Gestión de conjuntos residenciales</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>30</v>
       </c>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="D5" s="46"/>
     </row>
-    <row r="6" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>31</v>
       </c>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="D6" s="46"/>
     </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>32</v>
       </c>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="D7" s="46"/>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>33</v>
       </c>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="D8" s="46"/>
     </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>57</v>
       </c>
@@ -2049,107 +2049,107 @@
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="54" t="str">
+      <c r="B3" s="66" t="str">
         <f>'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que representa a cada uno de los conjuntos residenciales existentes.</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="55"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="64" t="s">
+      <c r="F4" s="68"/>
+      <c r="G4" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="64"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2159,52 +2159,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="67" t="s">
+      <c r="L4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="68" t="s">
+      <c r="M4" s="57" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="62" t="s">
+      <c r="F5" s="68"/>
+      <c r="G5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="65" t="s">
+      <c r="H5" s="51"/>
+      <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="63" t="s">
+      <c r="K5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="67"/>
-      <c r="M5" s="68"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="59"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="57"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -2217,198 +2217,198 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="68"/>
-    </row>
-    <row r="7" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48" t="s">
+      <c r="I7" s="60"/>
+      <c r="J7" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48" t="s">
+      <c r="K7" s="60"/>
+      <c r="L7" s="60" t="s">
         <v>38</v>
       </c>
       <c r="M7" s="28" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
+    <row r="8" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="64"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
       <c r="M8" s="28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
+    <row r="9" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="64"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
       <c r="M9" s="28" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
+    <row r="10" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="64"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
       <c r="M10" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
+    <row r="11" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="65"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
       <c r="M11" s="28" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+    <row r="12" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48" t="s">
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48" t="s">
+      <c r="I12" s="60"/>
+      <c r="J12" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48" t="s">
+      <c r="K12" s="60"/>
+      <c r="L12" s="60" t="s">
         <v>81</v>
       </c>
       <c r="M12" s="28" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
+    <row r="13" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="64"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
       <c r="M13" s="28" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
+    <row r="14" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="64"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
       <c r="M14" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
+    <row r="15" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="65"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
       <c r="M15" s="28" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>90</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>83</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>31</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
         <v>31</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>83</v>
       </c>
@@ -2575,18 +2575,19 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="H12:H15"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B3:M3"/>
@@ -2603,19 +2604,18 @@
     <mergeCell ref="K7:K11"/>
     <mergeCell ref="J7:J11"/>
     <mergeCell ref="I7:I11"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="B2:M2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -2632,113 +2632,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="85" t="str">
+      <c r="B3" s="74" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="87"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="76"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="89"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="92" t="s">
+      <c r="F4" s="80"/>
+      <c r="G4" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="93"/>
+      <c r="H4" s="82"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2748,52 +2748,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="94" t="s">
+      <c r="L4" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="97" t="s">
+      <c r="M4" s="86" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="108" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="91"/>
-      <c r="G5" s="100" t="s">
+      <c r="F5" s="80"/>
+      <c r="G5" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="101"/>
-      <c r="I5" s="104" t="s">
+      <c r="H5" s="90"/>
+      <c r="I5" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106" t="s">
+      <c r="J5" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="102" t="s">
+      <c r="K5" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="95"/>
-      <c r="M5" s="98"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="59"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="87"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="98"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -2806,29 +2806,29 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="105"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="99"/>
-    </row>
-    <row r="7" spans="1:14" ht="88.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
+      <c r="I6" s="94"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="88"/>
+    </row>
+    <row r="7" spans="1:14" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="101" t="s">
         <v>103</v>
       </c>
       <c r="G7" s="24" t="s">
@@ -2837,129 +2837,129 @@
       <c r="H7" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74" t="s">
+      <c r="I7" s="101"/>
+      <c r="J7" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74" t="s">
+      <c r="K7" s="101"/>
+      <c r="L7" s="101" t="s">
         <v>40</v>
       </c>
       <c r="M7" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="74" t="s">
+    <row r="8" spans="1:14" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="108"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="74" t="s">
+      <c r="H8" s="101" t="s">
         <v>162</v>
       </c>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
       <c r="M8" s="38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
+    <row r="9" spans="1:14" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="109"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
       <c r="M9" s="37" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48" t="s">
+      <c r="I10" s="60"/>
+      <c r="J10" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48" t="s">
+      <c r="K10" s="60"/>
+      <c r="L10" s="60" t="s">
         <v>39</v>
       </c>
       <c r="M10" s="26" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
       <c r="M11" s="38" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="78" t="s">
+    <row r="12" spans="1:14" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="60" t="s">
         <v>161</v>
       </c>
       <c r="G12" s="24" t="s">
@@ -2968,54 +2968,54 @@
       <c r="H12" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48" t="s">
+      <c r="I12" s="60"/>
+      <c r="J12" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48" t="s">
+      <c r="K12" s="60"/>
+      <c r="L12" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="48" t="s">
+      <c r="M12" s="60" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
+    <row r="13" spans="1:14" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="106"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="21" t="s">
         <v>113</v>
       </c>
       <c r="H13" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-    </row>
-    <row r="14" spans="1:14" ht="120.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="77" t="s">
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+    </row>
+    <row r="14" spans="1:14" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="77" t="s">
+      <c r="E14" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="77" t="s">
+      <c r="F14" s="104" t="s">
         <v>116</v>
       </c>
       <c r="G14" s="24" t="s">
@@ -3024,74 +3024,48 @@
       <c r="H14" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77" t="s">
+      <c r="I14" s="104"/>
+      <c r="J14" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77" t="s">
+      <c r="K14" s="104"/>
+      <c r="L14" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="77" t="s">
+      <c r="M14" s="104" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
+    <row r="15" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="104"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
       <c r="G15" s="24" t="s">
         <v>117</v>
       </c>
       <c r="H15" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="L14:L15"/>
     <mergeCell ref="M14:M15"/>
@@ -3108,17 +3082,43 @@
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
     <mergeCell ref="L7:L9"/>
     <mergeCell ref="K7:K9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -3138,107 +3138,107 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="43.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="43.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="54" t="str">
+      <c r="B3" s="66" t="str">
         <f>'Listado Objetos de Dominio'!$B$6</f>
         <v xml:space="preserve"> Objeto de dominio que representa el Administrador encargado de hacer CRUD a zonas comunes y Usuarios(residentes), tambien encargado de cancelar reservas.</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="55"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="64" t="s">
+      <c r="F4" s="68"/>
+      <c r="G4" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="64"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -3248,52 +3248,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="67" t="s">
+      <c r="L4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="68" t="s">
+      <c r="M4" s="57" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="62" t="s">
+      <c r="F5" s="68"/>
+      <c r="G5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="65" t="s">
+      <c r="H5" s="51"/>
+      <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="63" t="s">
+      <c r="K5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="67"/>
-      <c r="M5" s="68"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="59"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="57"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -3306,84 +3306,84 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="68"/>
-    </row>
-    <row r="7" spans="1:14" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48" t="s">
+      <c r="I7" s="60"/>
+      <c r="J7" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48" t="s">
+      <c r="K7" s="60"/>
+      <c r="L7" s="60" t="s">
         <v>43</v>
       </c>
       <c r="M7" s="28" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
+    <row r="8" spans="1:14" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="64"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
       <c r="M8" s="28" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
+    <row r="9" spans="1:14" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="65"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
       <c r="M9" s="28" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>31</v>
       </c>
@@ -3420,63 +3420,63 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48" t="s">
+      <c r="I11" s="60"/>
+      <c r="J11" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48" t="s">
+      <c r="K11" s="60"/>
+      <c r="L11" s="60" t="s">
         <v>181</v>
       </c>
       <c r="M11" s="28" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
       <c r="M12" s="33" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>31</v>
       </c>
@@ -3513,11 +3513,36 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E14" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
@@ -3533,31 +3558,6 @@
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -3574,111 +3574,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135EFB96-F09D-4669-AFCD-45B4BA78057C}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="54" t="str">
+      <c r="B3" s="66" t="str">
         <f>'Listado Objetos de Dominio'!$B$7</f>
         <v>Objeto de dominio que representa la Agenda programada de manera especifica para cada zona comun.</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="55"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="64" t="s">
+      <c r="F4" s="68"/>
+      <c r="G4" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="64"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -3688,52 +3688,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="67" t="s">
+      <c r="L4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="68" t="s">
+      <c r="M4" s="57" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="62" t="s">
+      <c r="F5" s="68"/>
+      <c r="G5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="65" t="s">
+      <c r="H5" s="51"/>
+      <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="63" t="s">
+      <c r="K5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="67"/>
-      <c r="M5" s="68"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="59"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="57"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -3746,83 +3746,83 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="68"/>
-    </row>
-    <row r="7" spans="1:14" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48" t="s">
+      <c r="I7" s="60"/>
+      <c r="J7" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48" t="s">
+      <c r="K7" s="60"/>
+      <c r="L7" s="60" t="s">
         <v>63</v>
       </c>
       <c r="M7" s="29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
+    <row r="8" spans="1:14" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="65"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
       <c r="M8" s="29" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+    <row r="9" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="60" t="s">
         <v>134</v>
       </c>
       <c r="G9" s="24" t="s">
@@ -3831,11 +3831,11 @@
       <c r="H9" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48" t="s">
+      <c r="I9" s="60"/>
+      <c r="J9" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="48"/>
+      <c r="K9" s="60"/>
       <c r="L9" s="24" t="s">
         <v>63</v>
       </c>
@@ -3843,63 +3843,63 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
+    <row r="10" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="64"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="22" t="s">
         <v>73</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49" t="s">
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61" t="s">
         <v>171</v>
       </c>
       <c r="M10" s="111"/>
     </row>
-    <row r="11" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
+    <row r="11" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="65"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="22" t="s">
         <v>170</v>
       </c>
       <c r="H11" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
       <c r="M11" s="112"/>
     </row>
-    <row r="12" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+    <row r="12" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="60" t="s">
         <v>79</v>
       </c>
       <c r="G12" s="24" t="s">
@@ -3908,61 +3908,61 @@
       <c r="H12" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48" t="s">
+      <c r="I12" s="60"/>
+      <c r="J12" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48" t="s">
+      <c r="K12" s="60"/>
+      <c r="L12" s="60" t="s">
         <v>45</v>
       </c>
       <c r="M12" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
+    <row r="13" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="64"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="22" t="s">
         <v>73</v>
       </c>
       <c r="H13" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
       <c r="M13" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
+    <row r="14" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="65"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="22" t="s">
         <v>170</v>
       </c>
       <c r="H14" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
       <c r="M14" s="33" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>31</v>
       </c>
@@ -3997,6 +3997,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="I12:I14"/>
@@ -4013,40 +4047,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{175DFE60-DD9E-49DC-B6DD-E705858EF325}"/>
@@ -4065,108 +4065,108 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="69" t="str">
+      <c r="B2" s="58" t="str">
         <f>'Listado Objetos de Dominio'!A9</f>
         <v>Publicación</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="54" t="str">
+      <c r="B3" s="66" t="str">
         <f>'Listado Objetos de Dominio'!$B$9</f>
         <v xml:space="preserve"> Objeto de dominio que representa el medio de comunicación que hay frente de publicar alguna eventualidad.</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="55"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="64" t="s">
+      <c r="F4" s="68"/>
+      <c r="G4" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="64"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -4176,52 +4176,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="67" t="s">
+      <c r="L4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="68" t="s">
+      <c r="M4" s="57" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="62" t="s">
+      <c r="F5" s="68"/>
+      <c r="G5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="65" t="s">
+      <c r="H5" s="51"/>
+      <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="63" t="s">
+      <c r="K5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="67"/>
-      <c r="M5" s="68"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="59"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="57"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -4234,121 +4234,121 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="68"/>
-    </row>
-    <row r="7" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48" t="s">
+      <c r="I7" s="60"/>
+      <c r="J7" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48" t="s">
+      <c r="K7" s="60"/>
+      <c r="L7" s="60" t="s">
         <v>183</v>
       </c>
       <c r="M7" s="28" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
+    <row r="8" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="64"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
       <c r="M8" s="33" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="48" t="s">
+    <row r="9" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="64"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
       <c r="M9" s="28" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
+    <row r="10" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="65"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
       <c r="M10" s="35" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="60" t="s">
         <v>150</v>
       </c>
       <c r="G11" s="24" t="s">
@@ -4357,75 +4357,75 @@
       <c r="H11" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48" t="s">
+      <c r="I11" s="60"/>
+      <c r="J11" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48" t="s">
+      <c r="K11" s="60"/>
+      <c r="L11" s="60" t="s">
         <v>186</v>
       </c>
       <c r="M11" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+    <row r="12" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="48" t="s">
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
       <c r="M12" s="33" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
+    <row r="13" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="65"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
       <c r="M13" s="35" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
+    <row r="14" spans="1:14" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="60" t="s">
         <v>154</v>
       </c>
       <c r="G14" s="24" t="s">
@@ -4434,40 +4434,40 @@
       <c r="H14" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48" t="s">
+      <c r="I14" s="60"/>
+      <c r="J14" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48" t="s">
+      <c r="K14" s="60"/>
+      <c r="L14" s="60" t="s">
         <v>46</v>
       </c>
       <c r="M14" s="29" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
+    <row r="15" spans="1:14" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="65"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="24" t="s">
         <v>144</v>
       </c>
       <c r="H15" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
       <c r="M15" s="33" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>31</v>
       </c>
@@ -4500,23 +4500,23 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
+    <row r="17" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="60" t="s">
         <v>153</v>
       </c>
       <c r="G17" s="24" t="s">
@@ -4525,54 +4525,75 @@
       <c r="H17" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48" t="s">
+      <c r="I17" s="60"/>
+      <c r="J17" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48" t="s">
+      <c r="K17" s="60"/>
+      <c r="L17" s="60" t="s">
         <v>46</v>
       </c>
       <c r="M17" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
+    <row r="18" spans="1:13" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="65"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
       <c r="G18" s="24" t="s">
         <v>144</v>
       </c>
       <c r="H18" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
       <c r="M18" s="33" t="s">
         <v>185</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="G5:H5"/>
@@ -4589,40 +4610,19 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{755244C2-D34A-4436-ABEF-3130787CFBF9}"/>
@@ -4641,108 +4641,108 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="69" t="str">
+      <c r="B2" s="58" t="str">
         <f>'Listado Objetos de Dominio'!A8</f>
         <v>Turno</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="54" t="str">
+      <c r="B3" s="66" t="str">
         <f>'Listado Objetos de Dominio'!$B$8</f>
         <v>Objeto de dominio que representa a cada Turno que esta programado con respecto al tiempo de uso según la zona comun y con respecto a la agenda disponible.</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="55"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="64" t="s">
+      <c r="F4" s="68"/>
+      <c r="G4" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="64"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -4752,52 +4752,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="67" t="s">
+      <c r="L4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="68" t="s">
+      <c r="M4" s="57" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="62" t="s">
+      <c r="F5" s="68"/>
+      <c r="G5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="65" t="s">
+      <c r="H5" s="51"/>
+      <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="63" t="s">
+      <c r="K5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="67"/>
-      <c r="M5" s="68"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="59"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="57"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -4810,29 +4810,29 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="68"/>
-    </row>
-    <row r="7" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="s">
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E7" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="F7" s="77" t="s">
+      <c r="F7" s="104" t="s">
         <v>191</v>
       </c>
       <c r="G7" s="24" t="s">
@@ -4841,75 +4841,75 @@
       <c r="H7" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77" t="s">
+      <c r="I7" s="104"/>
+      <c r="J7" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77" t="s">
+      <c r="K7" s="104"/>
+      <c r="L7" s="104" t="s">
         <v>52</v>
       </c>
       <c r="M7" s="24" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="153" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
+    <row r="8" spans="1:14" ht="153" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
       <c r="G8" s="24" t="s">
         <v>78</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77" t="s">
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
+    <row r="9" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
       <c r="G9" s="23" t="s">
         <v>167</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-    </row>
-    <row r="10" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="77" t="s">
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+    </row>
+    <row r="10" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="77" t="s">
+      <c r="E10" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="77" t="s">
+      <c r="F10" s="104" t="s">
         <v>191</v>
       </c>
       <c r="G10" s="23" t="s">
@@ -4918,57 +4918,57 @@
       <c r="H10" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77" t="s">
+      <c r="I10" s="104"/>
+      <c r="J10" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="74"/>
-      <c r="L10" s="77" t="s">
+      <c r="K10" s="101"/>
+      <c r="L10" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="77" t="s">
+      <c r="M10" s="104" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="142.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
+    <row r="11" spans="1:14" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="104"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
       <c r="G11" s="23" t="s">
         <v>164</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-    </row>
-    <row r="12" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+    </row>
+    <row r="12" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
       <c r="G12" s="23" t="s">
         <v>167</v>
       </c>
       <c r="H12" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-    </row>
-    <row r="13" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="104"/>
+    </row>
+    <row r="13" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>136</v>
       </c>
@@ -5001,23 +5001,46 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H16" s="36"/>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H17" s="36"/>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H18" s="36"/>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H19" s="36"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H20" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
@@ -5034,29 +5057,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{72BB53BB-A255-4E65-8E13-6A32013B466E}"/>
@@ -5068,9 +5068,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5218,27 +5221,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5262,9 +5253,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Doo-Doc/Seccion # 7/ConjuntosResidenciales - Event Storming.xlsx
+++ b/Doo-Doc/Seccion # 7/ConjuntosResidenciales - Event Storming.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Seccion # 7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{92DF4C1B-9B9D-46C1-A102-F0C926A3B81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DFB6D76-513D-4F1D-AFB2-5B2BBC88EDC1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79D6BEF-6E36-4DE9-A227-7B6746AD4FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="179">
   <si>
     <t>Descripción</t>
   </si>
@@ -248,9 +248,6 @@
     <t>información Conjunto residencial</t>
   </si>
   <si>
-    <t>Crear zona común</t>
-  </si>
-  <si>
     <t>Acción dónde un administrador podrá crear una zona común</t>
   </si>
   <si>
@@ -543,6 +540,48 @@
   </si>
   <si>
     <t>Inmueble-Pol0001</t>
+  </si>
+  <si>
+    <t>Asegurar que los datos requeridos para registrar la información del nuevo conjunto residencial sean válidos a nivel de tipo de dato,formato, rango, longitud y obligatoriedad.</t>
+  </si>
+  <si>
+    <t>Se debe asegurar que no exista otro conjunto residencial registrado con el mismo nombre.</t>
+  </si>
+  <si>
+    <t>Asegurar que el identificador del conjunto residencial que se desea registrar  no ha haya sido asignado previamente a otro conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Asegurar que el numero de contacto  del conjunto residencial que se desea registrar  no ha haya sido asignado previamente a otro conjunto residencial.</t>
+  </si>
+  <si>
+    <t>ConRes-Pol0004</t>
+  </si>
+  <si>
+    <t>ConRes-Pol0005</t>
+  </si>
+  <si>
+    <t>ConRes-Pol0006</t>
+  </si>
+  <si>
+    <t>ConRes-Pol0007</t>
+  </si>
+  <si>
+    <t>ConRes-Pol0008</t>
+  </si>
+  <si>
+    <t>ConRes-Pol0009</t>
+  </si>
+  <si>
+    <t>ConRes-Pol0010</t>
+  </si>
+  <si>
+    <t>Registrar zona común</t>
+  </si>
+  <si>
+    <t>Asegurar que los datos requeridos para registrar la información de la nueva zona comun sean válidos a nivel de tipo de dato,formato, rango, longitud y obligatoriedad.</t>
+  </si>
+  <si>
+    <t>Asegurar que el identificador de la zona común que se desea registrar  no ha haya sido asignado previamente a otro conjunto residencial.</t>
   </si>
 </sst>
 </file>
@@ -1050,11 +1089,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1152,6 +1188,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1170,6 +1209,42 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1194,9 +1269,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1206,38 +1278,95 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1248,6 +1377,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1257,108 +1395,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1455,7 +1506,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1755,9 +1806,9 @@
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="11.44140625" style="3"/>
+    <col min="1" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -1782,7 +1833,7 @@
       <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5546875" customWidth="1"/>
     <col min="2" max="2" width="50.6640625" customWidth="1"/>
@@ -1791,47 +1842,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+    </row>
+    <row r="2" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>111</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="35"/>
-    </row>
-    <row r="2" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>112</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="39" t="str">
@@ -1840,49 +1891,49 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="40"/>
     </row>
     <row r="6" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="40"/>
+    </row>
+    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="40"/>
-    </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="D7" s="40"/>
+    </row>
+    <row r="8" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="40"/>
-    </row>
-    <row r="8" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="B8" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="40"/>
@@ -1910,535 +1961,576 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="18.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38" style="2" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38" style="1" customWidth="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="4"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="59" t="str">
         <f>'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que representa cada una de las comunidades habitacionales organizadas en un sistema. Abarca la totalidad de los elementos que componen el conjunto, desde las unidades habitacionales individuales (inmuebles) hasta las zonas comunes.</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="5"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="57" t="s">
+      <c r="F4" s="61"/>
+      <c r="G4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="46"/>
+      <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="5"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="55" t="s">
+      <c r="F5" s="61"/>
+      <c r="G5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="58" t="s">
+      <c r="H5" s="44"/>
+      <c r="I5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="K5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="60"/>
-      <c r="M5" s="61"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="12" t="s">
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="61"/>
-    </row>
-    <row r="7" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="50"/>
+    </row>
+    <row r="7" spans="1:14" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41" t="s">
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="103" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="57"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="104" t="s">
+        <v>166</v>
+      </c>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="57"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="104" t="s">
+        <v>167</v>
+      </c>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="57"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="95" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="95" t="s">
+        <v>168</v>
+      </c>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="58"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41" t="s">
+      <c r="I12" s="53"/>
+      <c r="J12" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41" t="s">
+      <c r="M12" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="57"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="57"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="58"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="M16" s="28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="24" t="s">
+      <c r="K20" s="23"/>
+      <c r="L20" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="M19" s="28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24" t="s">
+      <c r="M20" s="27" t="s">
         <v>105</v>
-      </c>
-      <c r="M20" s="28" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="L7:L11"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="I7:I11"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -2451,35 +2543,6 @@
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="L7:L11"/>
-    <mergeCell ref="K7:K11"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="C12:C15"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -2494,433 +2557,495 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="37.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38" style="2" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38" style="1" customWidth="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="4"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="78" t="str">
+      <c r="B3" s="67" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="5"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="85" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="75"/>
+      <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="87" t="s">
+      <c r="L4" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="90" t="s">
+      <c r="M4" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="5"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="93" t="s">
+      <c r="F5" s="73"/>
+      <c r="G5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="97" t="s">
+      <c r="H5" s="83"/>
+      <c r="I5" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="99" t="s">
+      <c r="J5" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="95" t="s">
+      <c r="K5" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="88"/>
-      <c r="M5" s="91"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="80"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="102"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="12" t="s">
+      <c r="A6" s="91"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="98"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="92"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="81"/>
     </row>
     <row r="7" spans="1:14" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="94" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="D7" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="H7" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="101"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="103" t="s">
+        <v>178</v>
+      </c>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="33"/>
+    </row>
+    <row r="9" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="101"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="105" t="s">
+        <v>168</v>
+      </c>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="102"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E11" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="24" t="s">
+      <c r="F11" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64" t="s">
+      <c r="K11" s="53"/>
+      <c r="L11" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64" t="s">
+      <c r="M11" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="99"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+    </row>
+    <row r="15" spans="1:14" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="K15" s="97"/>
+      <c r="L15" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="97" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="68"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" s="41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-    </row>
-    <row r="14" spans="1:14" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="70" t="s">
+    <row r="16" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="97"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="M14" s="70" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="24" t="s">
+      <c r="H16" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="60">
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="K7:K10"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -2936,53 +3061,6 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -3002,386 +3080,411 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="18.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="43.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38" style="2" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="43.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38" style="1" customWidth="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="4"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="59" t="str">
         <f>'Listado Objetos de Dominio'!$B$6</f>
         <v xml:space="preserve"> Objeto de dominio que representa el Administrador encargado de hacer la creacion o gestión de las zonas comunes y la gestión de residentes y sus respectivas reservas en caso de ser necesario.</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="5"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="57" t="s">
+      <c r="F4" s="61"/>
+      <c r="G4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="46"/>
+      <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="5"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="55" t="s">
+      <c r="F5" s="61"/>
+      <c r="G5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="58" t="s">
+      <c r="H5" s="44"/>
+      <c r="I5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="K5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="60"/>
-      <c r="M5" s="61"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="12" t="s">
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="61"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="50"/>
     </row>
     <row r="7" spans="1:14" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="D7" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="F7" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="57"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="58"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="41" t="s">
+      <c r="B10" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="H10" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="K10" s="23"/>
+      <c r="L10" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41" t="s">
+      <c r="C11" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24" t="s">
+      <c r="K13" s="23"/>
+      <c r="L13" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="M13" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="M10" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="M11" s="28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="M13" s="28" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E14" s="25"/>
+      <c r="E14" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
@@ -3397,31 +3500,6 @@
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -3442,399 +3520,395 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="37.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38" style="2" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38" style="1" customWidth="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75" t="str">
+      <c r="B2" s="64" t="str">
         <f>'Listado Objetos de Dominio'!A7</f>
         <v>ZonaInmueble</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="4"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="78" t="str">
+      <c r="B3" s="67" t="str">
         <f>'Listado Objetos de Dominio'!B7</f>
         <v>Objeto de dominio que representa una Zona de Inmuebles en un conjunto residencial se refiere a una agrupación de unidades habitacionales (como una torre, bloque, o lote) que comparten una ubicación física y características comunes dentro del conjunto.</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="5"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="71"/>
+      <c r="D4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="75"/>
+      <c r="I4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="90" t="s">
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="73"/>
+      <c r="G5" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="83"/>
+      <c r="I5" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="77"/>
+      <c r="M5" s="80"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="91"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="87"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="81"/>
+    </row>
+    <row r="7" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="101" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="97" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="88"/>
-      <c r="M5" s="91"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="102"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="98"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="92"/>
-    </row>
-    <row r="7" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="70" t="s">
+      <c r="H7" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="97"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="97"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="70" t="s">
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F12" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" s="70" t="s">
+      <c r="I12" s="23"/>
+      <c r="J12" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70" t="s">
+      <c r="M12" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70" t="s">
-        <v>124</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="H10" s="70" t="s">
+      <c r="K13" s="23"/>
+      <c r="L13" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="M12" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="24" t="s">
+      <c r="M13" s="23" t="s">
         <v>136</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
@@ -3851,16 +3925,20 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{26159308-C789-4323-AFE4-6B4EFA8BDD21}"/>
@@ -3875,401 +3953,401 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B1D8D7-0621-4D6B-8ACC-3788EF366C74}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="37.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38" style="2" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38" style="1" customWidth="1"/>
+    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75" t="str">
+      <c r="B2" s="64" t="str">
         <f>'Listado Objetos de Dominio'!A7</f>
         <v>ZonaInmueble</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="4"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="78" t="str">
+      <c r="B3" s="67" t="str">
         <f>'Listado Objetos de Dominio'!B7</f>
         <v>Objeto de dominio que representa una Zona de Inmuebles en un conjunto residencial se refiere a una agrupación de unidades habitacionales (como una torre, bloque, o lote) que comparten una ubicación física y características comunes dentro del conjunto.</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="5"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="71"/>
+      <c r="D4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="75"/>
+      <c r="I4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="N4" s="5"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="93" t="s">
+      <c r="F5" s="73"/>
+      <c r="G5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="97" t="s">
+      <c r="H5" s="83"/>
+      <c r="I5" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="99" t="s">
+      <c r="J5" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="95" t="s">
+      <c r="K5" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="88"/>
-      <c r="M5" s="91"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="80"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="102"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="12" t="s">
+      <c r="A6" s="91"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="98"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="92"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="81"/>
     </row>
     <row r="7" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="D7" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="97" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="70" t="s">
+      <c r="M7" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="97"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="97"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="97" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="97" t="s">
         <v>159</v>
       </c>
-      <c r="G7" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="H7" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70" t="s">
+      <c r="I10" s="97"/>
+      <c r="J10" s="97" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97" t="s">
+        <v>141</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="24" t="s">
+      <c r="K12" s="23"/>
+      <c r="L12" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" s="23" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="70" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="F10" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="H10" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70" t="s">
+    <row r="13" spans="1:14" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="24" t="s">
+      <c r="K13" s="23"/>
+      <c r="L13" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" s="23" t="s">
         <v>155</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="M12" s="24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="K5:K6"/>
@@ -4286,18 +4364,18 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{A2EDA17B-A1C5-4EEE-BEC0-ADE346B048F0}"/>
@@ -4453,18 +4531,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4486,14 +4564,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -4510,6 +4580,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6ebbfa72-b3b6-4c1f-8b23-058d4f67f013}" enabled="1" method="Privileged" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="0" removed="0"/>

--- a/Doo-Doc/Seccion # 7/ConjuntosResidenciales - Event Storming.xlsx
+++ b/Doo-Doc/Seccion # 7/ConjuntosResidenciales - Event Storming.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Seccion # 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79D6BEF-6E36-4DE9-A227-7B6746AD4FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C5CDE4-D925-4895-81BC-31A0831ADF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="192">
   <si>
     <t>Descripción</t>
   </si>
@@ -218,18 +218,9 @@
     <t>ConRes-Pol0003</t>
   </si>
   <si>
-    <t>No puede haber un mismo residente asociado en más de un conjunto residencial.</t>
-  </si>
-  <si>
-    <t>No puede haber un mismo administrador asociado en más de un conjunto residencial.</t>
-  </si>
-  <si>
     <t>Acción de eliminar a un residente del conjunto residencial.</t>
   </si>
   <si>
-    <t>Eliminar conjunto residencial</t>
-  </si>
-  <si>
     <t>Eliminar residente</t>
   </si>
   <si>
@@ -311,9 +302,6 @@
     <t>Información del conjunto residencial al cual se va a modificar un administrador</t>
   </si>
   <si>
-    <t>No puede haber más de un administrador con el mismo nombre en el mismo conjunto residencial.</t>
-  </si>
-  <si>
     <t>Buscar administrador</t>
   </si>
   <si>
@@ -401,18 +389,12 @@
     <t>Objeto de dominio que representa cada una de las comunidades habitacionales organizadas en un sistema. Abarca la totalidad de los elementos que componen el conjunto, desde las unidades habitacionales individuales (inmuebles) hasta las zonas comunes.</t>
   </si>
   <si>
-    <t>Crear zona inmueble</t>
-  </si>
-  <si>
     <t>Acción dónde un administrador podrá crear una zona inmueble</t>
   </si>
   <si>
     <t>Información del conjunto residencial al que se encuentra asociada la zona inmueble que se desea crear.</t>
   </si>
   <si>
-    <t>No puede existir más de una zona inmueble con el mismo nombre para el mismo conjunto residencial.</t>
-  </si>
-  <si>
     <t>Zona inmueble creada</t>
   </si>
   <si>
@@ -524,9 +506,6 @@
     <t>Información del Zona Inmueble al que se encuentra asociada la Inmueble que se desea crear.</t>
   </si>
   <si>
-    <t>No puede existir más de una Inmueble con el mismo nombre para el mismo Zona Inmueble.</t>
-  </si>
-  <si>
     <t>Información del Zona Inmueble al que se encuentra asociada la Inmueble que se desea buscar.</t>
   </si>
   <si>
@@ -545,43 +524,103 @@
     <t>Asegurar que los datos requeridos para registrar la información del nuevo conjunto residencial sean válidos a nivel de tipo de dato,formato, rango, longitud y obligatoriedad.</t>
   </si>
   <si>
-    <t>Se debe asegurar que no exista otro conjunto residencial registrado con el mismo nombre.</t>
-  </si>
-  <si>
     <t>Asegurar que el identificador del conjunto residencial que se desea registrar  no ha haya sido asignado previamente a otro conjunto residencial.</t>
   </si>
   <si>
     <t>Asegurar que el numero de contacto  del conjunto residencial que se desea registrar  no ha haya sido asignado previamente a otro conjunto residencial.</t>
   </si>
   <si>
-    <t>ConRes-Pol0004</t>
-  </si>
-  <si>
-    <t>ConRes-Pol0005</t>
-  </si>
-  <si>
-    <t>ConRes-Pol0006</t>
-  </si>
-  <si>
-    <t>ConRes-Pol0007</t>
-  </si>
-  <si>
     <t>ConRes-Pol0008</t>
   </si>
   <si>
-    <t>ConRes-Pol0009</t>
-  </si>
-  <si>
-    <t>ConRes-Pol0010</t>
-  </si>
-  <si>
     <t>Registrar zona común</t>
   </si>
   <si>
     <t>Asegurar que los datos requeridos para registrar la información de la nueva zona comun sean válidos a nivel de tipo de dato,formato, rango, longitud y obligatoriedad.</t>
   </si>
   <si>
-    <t>Asegurar que el identificador de la zona común que se desea registrar  no ha haya sido asignado previamente a otro conjunto residencial.</t>
+    <t>Asegurar que el identificador de la zona común que se desea registrar  no haya sido asignado previamente a otra zona común.</t>
+  </si>
+  <si>
+    <t>ZonCom-Pol0003</t>
+  </si>
+  <si>
+    <t>ZonCom-Pol0005</t>
+  </si>
+  <si>
+    <t>Asegurar que los datos requeridos para registrar la información del nuevo administrador sean válidos a nivel de tipo de dato,formato, rango, longitud y obligatoriedad.</t>
+  </si>
+  <si>
+    <t>Se debe asegurar que no exista otro administrador registrado con el mismo tipo y numero de documento de identidad.</t>
+  </si>
+  <si>
+    <t>Se debe asegurar que no exista otro administrador registrado con el mismo numero de contacto.</t>
+  </si>
+  <si>
+    <t>Se debe asegurar que no exista otro administrador registrado con el mismo correo electronico.</t>
+  </si>
+  <si>
+    <t>Admin-Pol0002</t>
+  </si>
+  <si>
+    <t>Admin-Pol0003</t>
+  </si>
+  <si>
+    <t>Admin-Pol0004</t>
+  </si>
+  <si>
+    <t>Admin-Pol0005</t>
+  </si>
+  <si>
+    <t>Registrar zona inmueble</t>
+  </si>
+  <si>
+    <t>Dar de baja zona inmueble</t>
+  </si>
+  <si>
+    <t>Dar de baja administrador</t>
+  </si>
+  <si>
+    <t>Dar de baja zona común</t>
+  </si>
+  <si>
+    <t>Dar de baja conjunto residencial</t>
+  </si>
+  <si>
+    <t>ZonInm-Pol0002</t>
+  </si>
+  <si>
+    <t>No es posible tener más de un tipo zona inmueble con el mismo numero zona inmueble  para un mismo conjunto residencial.</t>
+  </si>
+  <si>
+    <t>ZonInm-Pol0003</t>
+  </si>
+  <si>
+    <t>ZonInm-Pol0004</t>
+  </si>
+  <si>
+    <t>No es posible tener mas de un tipo inmueble que tenga el mismo número de vivienda más la misma zona inmueble.</t>
+  </si>
+  <si>
+    <t>Se debe asegurar exista una zona inmueble.</t>
+  </si>
+  <si>
+    <t>Inmueble-Pol0002</t>
+  </si>
+  <si>
+    <t>Inmueble-Pol0003</t>
+  </si>
+  <si>
+    <t>Inmueble-Pol0004</t>
+  </si>
+  <si>
+    <t>Asegurar que los datos requeridos para registrar la información del nuevo inmueble que sean válidos a nivel de tipo de dato,formato, rango, longitud y obligatoriedad.</t>
+  </si>
+  <si>
+    <t>Asegurar que los datos requeridos para registrar la información del nuevo zonaInmueble que sean válidos a nivel de tipo de dato,formato, rango, longitud y obligatoriedad.</t>
+  </si>
+  <si>
+    <t>Asegurar que el identificador del Administrador que se desea registrar  no ha haya sido asignado previamente a otro conjunto residencial.</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1149,263 +1188,269 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1806,15 +1851,15 @@
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18"/>
     </row>
   </sheetData>
@@ -1830,38 +1875,38 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-    </row>
-    <row r="2" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+    </row>
+    <row r="2" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
@@ -1875,23 +1920,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:4" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="39" t="str">
+      <c r="D4" s="40" t="str">
         <f>$B$1</f>
         <v>Conjuntos reisdenciales</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:4" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -1902,36 +1947,36 @@
       </c>
       <c r="D5" s="40"/>
     </row>
-    <row r="6" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="40"/>
     </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>112</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>116</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="40"/>
     </row>
-    <row r="8" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>114</v>
+    <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>110</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>26</v>
@@ -1947,9 +1992,9 @@
   <hyperlinks>
     <hyperlink ref="A5" location="ZonaComun!A1" display="ZonaComun" xr:uid="{659FF4C4-4E63-4E65-8F2F-0B1F9B560FF0}"/>
     <hyperlink ref="A6" location="Administrador!A1" display="Administrador" xr:uid="{53777C6A-9F57-4297-A51E-D6F9710DD3E7}"/>
-    <hyperlink ref="A8" location="Turno!A1" display="Turno" xr:uid="{002FCD0F-C014-431C-817B-BD5A428252D4}"/>
+    <hyperlink ref="A8" location="Inmueble!A1" display="Inmueble" xr:uid="{002FCD0F-C014-431C-817B-BD5A428252D4}"/>
     <hyperlink ref="A4" location="ConjuntoResidencial!A1" display="ConjuntoResidencial" xr:uid="{5CE59C8C-1F49-44C1-B8F4-A07C71623DBF}"/>
-    <hyperlink ref="A7" location="Agenda!A1" display="Agenda" xr:uid="{4DA690E0-D9C3-43CD-BD03-AE26FE9577A9}"/>
+    <hyperlink ref="A7" location="ZonaInmueble!A1" display="ZonaInmueble" xr:uid="{4DA690E0-D9C3-43CD-BD03-AE26FE9577A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1961,110 +2006,110 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="36.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="59" t="str">
+      <c r="B3" s="63" t="str">
         <f>'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que representa cada una de las comunidades habitacionales organizadas en un sistema. Abarca la totalidad de los elementos que componen el conjunto, desde las unidades habitacionales individuales (inmuebles) hasta las zonas comunes.</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="60"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="64"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="46" t="s">
+      <c r="F4" s="65"/>
+      <c r="G4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="46"/>
+      <c r="H4" s="49"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2074,52 +2119,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="53" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="44" t="s">
+      <c r="F5" s="65"/>
+      <c r="G5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="47" t="s">
+      <c r="H5" s="47"/>
+      <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="63"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -2132,376 +2177,360 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="50"/>
-    </row>
-    <row r="7" spans="1:14" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
+    </row>
+    <row r="7" spans="1:14" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="103" t="s">
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="103" t="s">
-        <v>165</v>
-      </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53" t="s">
+      <c r="H7" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53" t="s">
+      <c r="K7" s="57"/>
+      <c r="L7" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="61"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="61"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="61"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="62"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="61"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="61"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="62"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="M20" s="26" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="104" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="104" t="s">
-        <v>166</v>
-      </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="57"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="104" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="104" t="s">
-        <v>167</v>
-      </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="57"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="95" t="s">
-        <v>169</v>
-      </c>
-      <c r="H10" s="95" t="s">
-        <v>168</v>
-      </c>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="H12" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="57"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="57"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" s="27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="M19" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>105</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="47">
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="A12:A15"/>
@@ -2531,6 +2560,8 @@
     <mergeCell ref="K7:K11"/>
     <mergeCell ref="J7:J11"/>
     <mergeCell ref="I7:I11"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="G7:G9"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -2559,113 +2590,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="31" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="72"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="67" t="str">
+      <c r="B3" s="73" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
         <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y porder usarlos.</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="69"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="75"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="71"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="75"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2675,52 +2706,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="76" t="s">
+      <c r="L4" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="79" t="s">
+      <c r="M4" s="85" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="90" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="82" t="s">
+      <c r="F5" s="79"/>
+      <c r="G5" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="86" t="s">
+      <c r="H5" s="89"/>
+      <c r="I5" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88" t="s">
+      <c r="J5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="84" t="s">
+      <c r="K5" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="77"/>
-      <c r="M5" s="80"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="91"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="63"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="86"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="97"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -2733,276 +2764,264 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="81"/>
-    </row>
-    <row r="7" spans="1:14" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100" t="s">
+      <c r="I6" s="93"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="87"/>
+    </row>
+    <row r="7" spans="1:14" ht="88.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="94" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="94" t="s">
+      <c r="B7" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="104"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="104"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="69"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="105"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="C11" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E11" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="94" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="106" t="s">
-        <v>177</v>
-      </c>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94" t="s">
+      <c r="K11" s="57"/>
+      <c r="L11" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94" t="s">
+      <c r="M11" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="102"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+    </row>
+    <row r="15" spans="1:14" ht="120.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="101"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="103" t="s">
-        <v>178</v>
-      </c>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="33"/>
-    </row>
-    <row r="9" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="101"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="103" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="105" t="s">
-        <v>168</v>
-      </c>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="102"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53" t="s">
+      <c r="K15" s="100"/>
+      <c r="L15" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="M11" s="25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="98" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" s="53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="99"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-    </row>
-    <row r="15" spans="1:14" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="97" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="97" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="97" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" s="97" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="97"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
+      <c r="M15" s="100" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="100"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="I7:I10"/>
+  <mergeCells count="67">
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="E7:E10"/>
@@ -3030,22 +3049,19 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I7:I10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="K7:K10"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -3061,12 +3077,23 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="J7:J10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{08B9185A-577F-48B9-9ED8-67B0BBF2A510}"/>
-    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{607A7919-29D4-4751-8490-C72BCB3B0AA7}"/>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{078F8CE3-595B-4553-B626-A15EF6954278}"/>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{1B3CBBCF-E980-4C91-8A19-C65C27290A87}"/>
+    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{7DFB2370-243D-4BEF-8FAC-BADDFD2CBAA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3074,113 +3101,113 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="43.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="43.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="59" t="str">
+      <c r="B3" s="63" t="str">
         <f>'Listado Objetos de Dominio'!$B$6</f>
         <v xml:space="preserve"> Objeto de dominio que representa el Administrador encargado de hacer la creacion o gestión de las zonas comunes y la gestión de residentes y sus respectivas reservas en caso de ser necesario.</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="60"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="64"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="46" t="s">
+      <c r="F4" s="65"/>
+      <c r="G4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="46"/>
+      <c r="H4" s="49"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -3190,52 +3217,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="53" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="44" t="s">
+      <c r="F5" s="65"/>
+      <c r="G5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="47" t="s">
+      <c r="H5" s="47"/>
+      <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="63"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -3248,243 +3275,278 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="50"/>
-    </row>
-    <row r="7" spans="1:14" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
+    </row>
+    <row r="7" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="G7" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="H7" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="61"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="61"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="106" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="61"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="107"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="62"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="108"/>
+    </row>
+    <row r="12" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="B12" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="K12" s="22"/>
+      <c r="L12" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="100" t="s">
+        <v>191</v>
+      </c>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="M13" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="53" t="s">
+    </row>
+    <row r="14" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53" t="s">
+      <c r="G15" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="M13" s="27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E14" s="24"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E16" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
+  <mergeCells count="41">
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="L7:L11"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="M9:M11"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
@@ -3516,113 +3578,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB345C48-C8D9-4186-9152-4D78F60A6B79}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="64" t="str">
+      <c r="B2" s="70" t="str">
         <f>'Listado Objetos de Dominio'!A7</f>
         <v>ZonaInmueble</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="72"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="67" t="str">
+      <c r="B3" s="73" t="str">
         <f>'Listado Objetos de Dominio'!B7</f>
         <v>Objeto de dominio que representa una Zona de Inmuebles en un conjunto residencial se refiere a una agrupación de unidades habitacionales (como una torre, bloque, o lote) que comparten una ubicación física y características comunes dentro del conjunto.</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="69"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="75"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="71"/>
+      <c r="B4" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="77"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="75"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -3632,52 +3694,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="76" t="s">
+      <c r="L4" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="79" t="s">
-        <v>139</v>
+      <c r="M4" s="85" t="s">
+        <v>133</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="90" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="82" t="s">
+      <c r="F5" s="79"/>
+      <c r="G5" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="86" t="s">
+      <c r="H5" s="89"/>
+      <c r="I5" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88" t="s">
+      <c r="J5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="84" t="s">
+      <c r="K5" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="77"/>
-      <c r="M5" s="80"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="91"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="63"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="86"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="97"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -3690,211 +3752,211 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="81"/>
-    </row>
-    <row r="7" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="97" t="s">
+      <c r="I6" s="93"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="87"/>
+    </row>
+    <row r="7" spans="1:14" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="100" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="100" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="100" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="100" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="97" t="s">
+    </row>
+    <row r="8" spans="1:14" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="97" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="97" t="s">
+    </row>
+    <row r="9" spans="1:14" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="100"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="97" t="s">
-        <v>140</v>
-      </c>
-      <c r="H7" s="97" t="s">
+    </row>
+    <row r="10" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97" t="s">
+      <c r="C10" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97" t="s">
+      <c r="D10" s="100" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="M7" s="23" t="s">
+      <c r="G10" s="100" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" s="100" t="s">
+        <v>185</v>
+      </c>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="23" t="s">
+      <c r="K10" s="100"/>
+      <c r="L10" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="97"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="23" t="s">
+      <c r="D12" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="97" t="s">
+      <c r="G12" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="K12" s="22"/>
+      <c r="L12" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="120.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="97" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="97" t="s">
+      <c r="D13" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="97" t="s">
-        <v>140</v>
-      </c>
-      <c r="H10" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97" t="s">
+      <c r="G13" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="M12" s="23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3915,8 +3977,6 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="K7:K9"/>
     <mergeCell ref="C5:C6"/>
@@ -3939,11 +3999,12 @@
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="I7:I9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{26159308-C789-4323-AFE4-6B4EFA8BDD21}"/>
-    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{7A77340D-95DD-4C9D-B1F4-F7E1C6C1E691}"/>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{C34285CD-0B01-4CC1-9872-AA9FE4D44D5E}"/>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{40DB47AD-DF64-4401-B17F-CC72FC22A8C4}"/>
+    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{C5CD188B-80DF-4877-9296-0AF75374BD3C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3953,113 +4014,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B1D8D7-0621-4D6B-8ACC-3788EF366C74}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="64" t="str">
+      <c r="B2" s="70" t="str">
         <f>'Listado Objetos de Dominio'!A7</f>
         <v>ZonaInmueble</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="72"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="67" t="str">
+      <c r="B3" s="73" t="str">
         <f>'Listado Objetos de Dominio'!B7</f>
         <v>Objeto de dominio que representa una Zona de Inmuebles en un conjunto residencial se refiere a una agrupación de unidades habitacionales (como una torre, bloque, o lote) que comparten una ubicación física y características comunes dentro del conjunto.</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="69"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="75"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="71"/>
+      <c r="B4" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="77"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="75"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -4069,52 +4130,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="76" t="s">
+      <c r="L4" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="79" t="s">
-        <v>139</v>
+      <c r="M4" s="85" t="s">
+        <v>133</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="90" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="82" t="s">
+      <c r="F5" s="79"/>
+      <c r="G5" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="86" t="s">
+      <c r="H5" s="89"/>
+      <c r="I5" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88" t="s">
+      <c r="J5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="84" t="s">
+      <c r="K5" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="77"/>
-      <c r="M5" s="80"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="91"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="63"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="86"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="97"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -4127,211 +4188,211 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="81"/>
-    </row>
-    <row r="7" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="97" t="s">
+      <c r="I6" s="93"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="87"/>
+    </row>
+    <row r="7" spans="1:14" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="100" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="100" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="100" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" s="100" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="100"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="100" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="D10" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="100" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="100" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="100" t="s">
+        <v>184</v>
+      </c>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="97" t="s">
-        <v>157</v>
-      </c>
-      <c r="F7" s="97" t="s">
-        <v>158</v>
-      </c>
-      <c r="G7" s="97" t="s">
-        <v>164</v>
-      </c>
-      <c r="H7" s="97" t="s">
+      <c r="D12" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="H12" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97" t="s">
-        <v>142</v>
-      </c>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97" t="s">
+      <c r="I12" s="22"/>
+      <c r="J12" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="120.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" s="22" t="s">
         <v>149</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="97"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="97" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="97" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="97" t="s">
-        <v>157</v>
-      </c>
-      <c r="F10" s="97" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="97" t="s">
-        <v>164</v>
-      </c>
-      <c r="H10" s="97" t="s">
-        <v>159</v>
-      </c>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97" t="s">
-        <v>145</v>
-      </c>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97" t="s">
-        <v>141</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="M12" s="23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4378,15 +4439,29 @@
     <mergeCell ref="L7:L9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{A2EDA17B-A1C5-4EEE-BEC0-ADE346B048F0}"/>
-    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{B9F55B44-B375-459C-AB38-12C6005FC278}"/>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{6EE7524E-43C5-4AAE-9247-F4D2D771BA3F}"/>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{DE0AC091-170B-4F28-806F-0CE19EF466E0}"/>
+    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{97AF0DC4-90A7-428F-889B-0D807645743D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C279D002CEC08F42B7087C30E58D0266" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5713f579c7011938dc4987ae8981b8f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3219184d-29ab-4105-b29c-8e343e335d59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae0a0ff84a3c6712467f60982d6e378d" ns2:_="">
     <xsd:import namespace="3219184d-29ab-4105-b29c-8e343e335d59"/>
@@ -4530,22 +4605,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AEECCE0-61F9-4782-94C5-382F8EFF459D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4563,31 +4648,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6ebbfa72-b3b6-4c1f-8b23-058d4f67f013}" enabled="1" method="Privileged" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="0" removed="0"/>
